--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_13_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_13_30.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1324816.383613437</v>
+        <v>1329819.279333765</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4036833.957496464</v>
+        <v>4036833.957496462</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6904729.286739948</v>
+        <v>6904729.286739946</v>
       </c>
     </row>
     <row r="11">
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>125.6945112089209</v>
       </c>
-      <c r="D11" t="n">
+      <c r="H11" t="n">
         <v>125.6945112089209</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>125.6945112089209</v>
@@ -1418,7 +1418,7 @@
         <v>85.14831099190262</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>25.56341448091488</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>25.56341448091488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>125.6945112089209</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>125.6945112089209</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>65.93076634376834</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>110.7117254728175</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>125.6945112089209</v>
-      </c>
-      <c r="T12" t="n">
-        <v>125.6945112089209</v>
-      </c>
-      <c r="U12" t="n">
-        <v>125.6945112089209</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>44.78095912904915</v>
       </c>
     </row>
     <row r="13">
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>63.24977033562217</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>125.6945112089209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
         <v>125.6945112089209</v>
       </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>63.24977033562217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>125.6945112089209</v>
       </c>
     </row>
     <row r="14">
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>110.7117254728175</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>125.6945112089209</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>125.6945112089209</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>85.14831099190262</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>125.6945112089209</v>
       </c>
       <c r="U14" t="n">
-        <v>25.56341448091488</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>125.6945112089209</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>125.6945112089209</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>125.6945112089209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,10 +1692,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>125.6945112089209</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>125.6945112089209</v>
+        <v>118.8421207358097</v>
       </c>
       <c r="G15" t="n">
         <v>125.6945112089209</v>
@@ -1704,7 +1704,7 @@
         <v>106.9113411483966</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>70.41651966268472</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>65.93076634376834</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.80038432442089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>125.6945112089209</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.68405415136394</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,28 +1807,28 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>47.46195513719525</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>125.6945112089209</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>125.6945112089209</v>
       </c>
       <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>110.7117254728175</v>
+      </c>
+      <c r="X16" t="n">
         <v>125.6945112089209</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.565716184258237</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1859,10 +1859,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.01106111380802</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>170.7544972569385</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>85.14831099190262</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>185.5416641042886</v>
@@ -1898,19 +1898,19 @@
         <v>218.5856259767582</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2632273482729</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>44.81749636103219</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1923,16 +1923,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>153.6390338206529</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>136.7922476336526</v>
@@ -1983,13 +1983,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>160.8573543454544</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>156.5127339225704</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>215.9623076325108</v>
       </c>
       <c r="T19" t="n">
-        <v>201.2722607629893</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>115.3202175444991</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>226.668459081723</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>227.3258825143208</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>328.9230425922525</v>
       </c>
       <c r="I20" t="n">
-        <v>170.7544972569385</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,22 +2126,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>85.14831099190262</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>218.5856259767582</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2166,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.7922476336526</v>
       </c>
       <c r="H21" t="n">
         <v>106.9113411483966</v>
       </c>
       <c r="I21" t="n">
-        <v>70.41651966268472</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>65.93076634376834</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>161.4435813771788</v>
@@ -2214,10 +2214,10 @@
         <v>197.9427256348925</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9051143487671</v>
+        <v>161.0473348576973</v>
       </c>
       <c r="V21" t="n">
-        <v>93.23226259153054</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>46.12329607803225</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>156.5127339225704</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>215.9623076325108</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>79.14488185318186</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,19 +2324,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>158.6405563927421</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.2724180205895</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>150.2958140631663</v>
+        <v>328.9230425922525</v>
       </c>
       <c r="I23" t="n">
-        <v>170.7544972569385</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2632273482729</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,25 +2394,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.7922476336526</v>
       </c>
       <c r="H24" t="n">
-        <v>106.9113411483966</v>
+        <v>22.34738603039364</v>
       </c>
       <c r="I24" t="n">
         <v>70.41651966268472</v>
@@ -2445,7 +2445,7 @@
         <v>65.93076634376834</v>
       </c>
       <c r="S24" t="n">
-        <v>67.53701896993284</v>
+        <v>161.4435813771788</v>
       </c>
       <c r="T24" t="n">
         <v>197.9427256348925</v>
@@ -2463,7 +2463,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>215.9623076325108</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>271.8329514670694</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>55.85121274005814</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,19 +2561,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.2724180205895</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>170.7544972569385</v>
+        <v>147.1929670500419</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>62.15515775233925</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>66.81418111767832</v>
+        <v>142.8103926029439</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2643,13 +2643,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>136.7922476336526</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>106.9113411483966</v>
       </c>
       <c r="I27" t="n">
         <v>70.41651966268472</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>161.4435813771788</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>197.9427256348925</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>59.94955158181214</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>81.9923981435591</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>141.5518872079267</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.9708807740838</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2938203098416</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,19 +2798,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>291.5104464402081</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.2724180205895</v>
       </c>
       <c r="H29" t="n">
-        <v>328.9230425922525</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>170.7544972569385</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>85.14831099190262</v>
       </c>
       <c r="S29" t="n">
-        <v>185.5416641042886</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>218.5856259767582</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2632273482729</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>115.037304883885</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,25 +2868,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>95.94559666179765</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>136.7922476336526</v>
       </c>
       <c r="H30" t="n">
-        <v>106.9113411483966</v>
+        <v>66.81418111767873</v>
       </c>
       <c r="I30" t="n">
         <v>70.41651966268472</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>65.93076634376834</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>161.4435813771788</v>
@@ -2934,7 +2934,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>127.511606487193</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>60.68405415136394</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>47.46195513719525</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3007,10 +3007,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>201.2722607629892</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3038,13 +3038,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>328.9230425922525</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>185.5416641042886</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>218.5856259767582</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>192.7040801725314</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>214.8926244745853</v>
       </c>
     </row>
     <row r="33">
@@ -3114,19 +3114,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.7922476336526</v>
       </c>
       <c r="H33" t="n">
         <v>106.9113411483966</v>
       </c>
       <c r="I33" t="n">
-        <v>70.41651966268472</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>197.9427256348925</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9051143487671</v>
+        <v>131.5535903143216</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3171,10 +3171,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>129.7595738180966</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>167.528813503221</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>158.1180979035985</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>162.1483476927607</v>
       </c>
       <c r="Y34" t="n">
-        <v>173.83248294979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>181.8059069971299</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,19 +3272,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>262.6494590801251</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>407.5058264226208</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>170.7544972569385</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>85.14831099190262</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>185.5416641042886</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.5856259767582</v>
       </c>
       <c r="U35" t="n">
         <v>251.2632273482729</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3357,13 +3357,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.7922476336526</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>74.17459974039268</v>
+        <v>106.9113411483966</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>70.41651966268472</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,19 +3390,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>65.93076634376834</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.9427256348925</v>
+        <v>136.9966248378791</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9051143487671</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3442,10 +3442,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>141.5518872079267</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>60.68405415136394</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>47.46195513719525</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2938203098416</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>201.5014387897387</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>238.0973626030944</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>77.4812141186268</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>328.9230425922525</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>93.50476146549097</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3563,10 +3563,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3579,28 +3579,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>69.48321509197578</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>80.28707893651085</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>70.41651966268472</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>65.93076634376834</v>
       </c>
       <c r="S39" t="n">
-        <v>161.4435813771788</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>156.5127339225704</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.9708807740838</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>201.2722607629893</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>105.3116444029261</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>125.6945112089209</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3749,61 +3749,61 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>110.7117254728175</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>125.6945112089209</v>
       </c>
-      <c r="G41" t="n">
-        <v>25.56341448091488</v>
-      </c>
-      <c r="H41" t="n">
+      <c r="X41" t="n">
         <v>125.6945112089209</v>
-      </c>
-      <c r="I41" t="n">
-        <v>125.6945112089209</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>85.14831099190262</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3819,73 +3819,73 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>125.6945112089209</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>40.29520581013279</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
         <v>125.6945112089209</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>70.41651966268472</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
+      <c r="X42" t="n">
+        <v>110.7117254728175</v>
+      </c>
+      <c r="Y42" t="n">
         <v>125.6945112089209</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>125.6945112089209</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3898,7 +3898,7 @@
         <v>125.6945112089209</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>125.6945112089209</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3952,19 +3952,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>125.6945112089209</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>125.6945112089209</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5018,19 +5018,19 @@
         <v>390.948019105565</v>
       </c>
       <c r="C11" t="n">
+        <v>390.948019105565</v>
+      </c>
+      <c r="D11" t="n">
+        <v>390.948019105565</v>
+      </c>
+      <c r="E11" t="n">
+        <v>390.948019105565</v>
+      </c>
+      <c r="F11" t="n">
+        <v>390.948019105565</v>
+      </c>
+      <c r="G11" t="n">
         <v>263.9838663692812</v>
-      </c>
-      <c r="D11" t="n">
-        <v>137.0197136329975</v>
-      </c>
-      <c r="E11" t="n">
-        <v>137.0197136329975</v>
-      </c>
-      <c r="F11" t="n">
-        <v>137.0197136329975</v>
-      </c>
-      <c r="G11" t="n">
-        <v>137.0197136329975</v>
       </c>
       <c r="H11" t="n">
         <v>137.0197136329975</v>
@@ -5039,25 +5039,25 @@
         <v>10.05556089671367</v>
       </c>
       <c r="J11" t="n">
-        <v>10.05556089671367</v>
+        <v>29.20585359414797</v>
       </c>
       <c r="K11" t="n">
-        <v>134.4931269935454</v>
+        <v>153.6434196909797</v>
       </c>
       <c r="L11" t="n">
-        <v>253.9029126420203</v>
+        <v>278.0809857878114</v>
       </c>
       <c r="M11" t="n">
-        <v>253.9029126420203</v>
+        <v>402.518551884643</v>
       </c>
       <c r="N11" t="n">
-        <v>378.340478738852</v>
+        <v>402.518551884643</v>
       </c>
       <c r="O11" t="n">
-        <v>378.340478738852</v>
+        <v>402.518551884643</v>
       </c>
       <c r="P11" t="n">
-        <v>502.7780448356837</v>
+        <v>402.518551884643</v>
       </c>
       <c r="Q11" t="n">
         <v>502.7780448356837</v>
@@ -5066,22 +5066,22 @@
         <v>416.7696498943679</v>
       </c>
       <c r="S11" t="n">
-        <v>416.7696498943679</v>
+        <v>390.948019105565</v>
       </c>
       <c r="T11" t="n">
-        <v>416.7696498943679</v>
+        <v>390.948019105565</v>
       </c>
       <c r="U11" t="n">
-        <v>416.7696498943679</v>
+        <v>390.948019105565</v>
       </c>
       <c r="V11" t="n">
-        <v>416.7696498943679</v>
+        <v>390.948019105565</v>
       </c>
       <c r="W11" t="n">
-        <v>416.7696498943679</v>
+        <v>390.948019105565</v>
       </c>
       <c r="X11" t="n">
-        <v>416.7696498943679</v>
+        <v>390.948019105565</v>
       </c>
       <c r="Y11" t="n">
         <v>390.948019105565</v>
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.05556089671367</v>
+        <v>137.0197136329975</v>
       </c>
       <c r="C12" t="n">
         <v>10.05556089671367</v>
@@ -5121,49 +5121,49 @@
         <v>10.05556089671367</v>
       </c>
       <c r="K12" t="n">
-        <v>134.4931269935454</v>
+        <v>10.05556089671367</v>
       </c>
       <c r="L12" t="n">
         <v>134.4931269935454</v>
       </c>
       <c r="M12" t="n">
-        <v>253.9029126420203</v>
+        <v>258.9306930903771</v>
       </c>
       <c r="N12" t="n">
-        <v>378.340478738852</v>
+        <v>270.8446547723021</v>
       </c>
       <c r="O12" t="n">
-        <v>378.340478738852</v>
+        <v>395.2822208691338</v>
       </c>
       <c r="P12" t="n">
-        <v>378.340478738852</v>
+        <v>502.7780448356837</v>
       </c>
       <c r="Q12" t="n">
         <v>502.7780448356837</v>
       </c>
       <c r="R12" t="n">
-        <v>436.1813111551096</v>
+        <v>502.7780448356837</v>
       </c>
       <c r="S12" t="n">
-        <v>309.2171584188258</v>
+        <v>502.7780448356837</v>
       </c>
       <c r="T12" t="n">
-        <v>182.253005682542</v>
+        <v>502.7780448356837</v>
       </c>
       <c r="U12" t="n">
-        <v>55.28885294625827</v>
+        <v>502.7780448356837</v>
       </c>
       <c r="V12" t="n">
-        <v>55.28885294625827</v>
+        <v>502.7780448356837</v>
       </c>
       <c r="W12" t="n">
-        <v>55.28885294625827</v>
+        <v>390.948019105565</v>
       </c>
       <c r="X12" t="n">
-        <v>55.28885294625827</v>
+        <v>390.948019105565</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.05556089671367</v>
+        <v>263.9838663692812</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>200.9083705376663</v>
+        <v>10.05556089671367</v>
       </c>
       <c r="C13" t="n">
-        <v>200.9083705376663</v>
+        <v>10.05556089671367</v>
       </c>
       <c r="D13" t="n">
-        <v>200.9083705376663</v>
+        <v>10.05556089671367</v>
       </c>
       <c r="E13" t="n">
-        <v>200.9083705376663</v>
+        <v>10.05556089671367</v>
       </c>
       <c r="F13" t="n">
-        <v>200.9083705376663</v>
+        <v>10.05556089671367</v>
       </c>
       <c r="G13" t="n">
-        <v>137.0197136329975</v>
+        <v>10.05556089671367</v>
       </c>
       <c r="H13" t="n">
         <v>10.05556089671367</v>
@@ -5227,10 +5227,10 @@
         <v>327.8725232739501</v>
       </c>
       <c r="T13" t="n">
-        <v>200.9083705376663</v>
+        <v>327.8725232739501</v>
       </c>
       <c r="U13" t="n">
-        <v>200.9083705376663</v>
+        <v>327.8725232739501</v>
       </c>
       <c r="V13" t="n">
         <v>200.9083705376663</v>
@@ -5239,10 +5239,10 @@
         <v>200.9083705376663</v>
       </c>
       <c r="X13" t="n">
-        <v>200.9083705376663</v>
+        <v>137.0197136329975</v>
       </c>
       <c r="Y13" t="n">
-        <v>200.9083705376663</v>
+        <v>10.05556089671367</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.05556089671367</v>
+        <v>375.8138920993999</v>
       </c>
       <c r="C14" t="n">
-        <v>10.05556089671367</v>
+        <v>375.8138920993999</v>
       </c>
       <c r="D14" t="n">
-        <v>10.05556089671367</v>
+        <v>375.8138920993999</v>
       </c>
       <c r="E14" t="n">
-        <v>10.05556089671367</v>
+        <v>375.8138920993999</v>
       </c>
       <c r="F14" t="n">
-        <v>10.05556089671367</v>
+        <v>263.9838663692813</v>
       </c>
       <c r="G14" t="n">
-        <v>10.05556089671367</v>
+        <v>263.9838663692813</v>
       </c>
       <c r="H14" t="n">
-        <v>10.05556089671367</v>
+        <v>137.0197136329975</v>
       </c>
       <c r="I14" t="n">
         <v>10.05556089671367</v>
@@ -5300,28 +5300,28 @@
         <v>502.7780448356837</v>
       </c>
       <c r="R14" t="n">
-        <v>416.7696498943679</v>
+        <v>502.7780448356837</v>
       </c>
       <c r="S14" t="n">
-        <v>416.7696498943679</v>
+        <v>502.7780448356837</v>
       </c>
       <c r="T14" t="n">
-        <v>416.7696498943679</v>
+        <v>375.8138920993999</v>
       </c>
       <c r="U14" t="n">
-        <v>390.948019105565</v>
+        <v>375.8138920993999</v>
       </c>
       <c r="V14" t="n">
-        <v>263.9838663692812</v>
+        <v>375.8138920993999</v>
       </c>
       <c r="W14" t="n">
-        <v>263.9838663692812</v>
+        <v>375.8138920993999</v>
       </c>
       <c r="X14" t="n">
-        <v>137.0197136329975</v>
+        <v>375.8138920993999</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.05556089671367</v>
+        <v>375.8138920993999</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>498.9392727908141</v>
+        <v>436.1813111551096</v>
       </c>
       <c r="C15" t="n">
-        <v>498.9392727908141</v>
+        <v>436.1813111551096</v>
       </c>
       <c r="D15" t="n">
-        <v>498.9392727908141</v>
+        <v>436.1813111551096</v>
       </c>
       <c r="E15" t="n">
-        <v>371.9751200545303</v>
+        <v>436.1813111551096</v>
       </c>
       <c r="F15" t="n">
-        <v>245.0109673182465</v>
+        <v>316.138764957322</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0468145819627</v>
+        <v>189.1746122210382</v>
       </c>
       <c r="H15" t="n">
-        <v>10.05556089671367</v>
+        <v>81.18335853578915</v>
       </c>
       <c r="I15" t="n">
         <v>10.05556089671367</v>
@@ -5367,40 +5367,40 @@
         <v>309.7536201635546</v>
       </c>
       <c r="N15" t="n">
-        <v>321.6675818454796</v>
+        <v>321.6675818454797</v>
       </c>
       <c r="O15" t="n">
-        <v>321.6675818454796</v>
+        <v>446.1051479423114</v>
       </c>
       <c r="P15" t="n">
-        <v>446.1051479423113</v>
+        <v>446.1051479423114</v>
       </c>
       <c r="Q15" t="n">
         <v>502.7780448356837</v>
       </c>
       <c r="R15" t="n">
-        <v>502.7780448356837</v>
+        <v>436.1813111551096</v>
       </c>
       <c r="S15" t="n">
-        <v>502.7780448356837</v>
+        <v>436.1813111551096</v>
       </c>
       <c r="T15" t="n">
-        <v>502.7780448356837</v>
+        <v>436.1813111551096</v>
       </c>
       <c r="U15" t="n">
-        <v>502.7780448356837</v>
+        <v>436.1813111551096</v>
       </c>
       <c r="V15" t="n">
-        <v>502.7780448356837</v>
+        <v>436.1813111551096</v>
       </c>
       <c r="W15" t="n">
-        <v>502.7780448356837</v>
+        <v>436.1813111551096</v>
       </c>
       <c r="X15" t="n">
-        <v>502.7780448356837</v>
+        <v>436.1813111551096</v>
       </c>
       <c r="Y15" t="n">
-        <v>498.9392727908141</v>
+        <v>436.1813111551096</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.3525852920308</v>
+        <v>137.0197136329975</v>
       </c>
       <c r="C16" t="n">
-        <v>71.3525852920308</v>
+        <v>137.0197136329975</v>
       </c>
       <c r="D16" t="n">
-        <v>71.3525852920308</v>
+        <v>10.05556089671367</v>
       </c>
       <c r="E16" t="n">
-        <v>71.3525852920308</v>
+        <v>10.05556089671367</v>
       </c>
       <c r="F16" t="n">
-        <v>71.3525852920308</v>
+        <v>10.05556089671367</v>
       </c>
       <c r="G16" t="n">
-        <v>71.3525852920308</v>
+        <v>10.05556089671367</v>
       </c>
       <c r="H16" t="n">
-        <v>71.3525852920308</v>
+        <v>10.05556089671367</v>
       </c>
       <c r="I16" t="n">
-        <v>71.3525852920308</v>
+        <v>10.05556089671367</v>
       </c>
       <c r="J16" t="n">
         <v>10.05556089671367</v>
       </c>
       <c r="K16" t="n">
-        <v>41.1670806585355</v>
+        <v>41.16708065853555</v>
       </c>
       <c r="L16" t="n">
-        <v>136.5055492352718</v>
+        <v>136.5055492352719</v>
       </c>
       <c r="M16" t="n">
         <v>247.4157200042745</v>
       </c>
       <c r="N16" t="n">
-        <v>361.1233112306641</v>
+        <v>361.1233112306642</v>
       </c>
       <c r="O16" t="n">
-        <v>450.134380320692</v>
+        <v>450.1343803206921</v>
       </c>
       <c r="P16" t="n">
-        <v>502.7780448356836</v>
+        <v>502.7780448356837</v>
       </c>
       <c r="Q16" t="n">
-        <v>454.8366760102339</v>
+        <v>502.7780448356837</v>
       </c>
       <c r="R16" t="n">
-        <v>327.8725232739501</v>
+        <v>502.7780448356837</v>
       </c>
       <c r="S16" t="n">
-        <v>200.9083705376663</v>
+        <v>375.8138920993999</v>
       </c>
       <c r="T16" t="n">
-        <v>73.94421780138255</v>
+        <v>375.8138920993999</v>
       </c>
       <c r="U16" t="n">
-        <v>73.94421780138255</v>
+        <v>375.8138920993999</v>
       </c>
       <c r="V16" t="n">
-        <v>71.3525852920308</v>
+        <v>375.8138920993999</v>
       </c>
       <c r="W16" t="n">
-        <v>71.3525852920308</v>
+        <v>263.9838663692813</v>
       </c>
       <c r="X16" t="n">
-        <v>71.3525852920308</v>
+        <v>137.0197136329975</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.3525852920308</v>
+        <v>137.0197136329975</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>392.8975395829925</v>
+        <v>205.0797562723334</v>
       </c>
       <c r="C17" t="n">
-        <v>392.8975395829925</v>
+        <v>205.0797562723334</v>
       </c>
       <c r="D17" t="n">
-        <v>34.63184097624202</v>
+        <v>205.0797562723334</v>
       </c>
       <c r="E17" t="n">
-        <v>34.63184097624202</v>
+        <v>205.0797562723334</v>
       </c>
       <c r="F17" t="n">
-        <v>34.63184097624202</v>
+        <v>205.0797562723334</v>
       </c>
       <c r="G17" t="n">
-        <v>34.63184097624202</v>
+        <v>205.0797562723334</v>
       </c>
       <c r="H17" t="n">
-        <v>32.60046611380967</v>
+        <v>205.0797562723334</v>
       </c>
       <c r="I17" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="J17" t="n">
-        <v>32.60046611380967</v>
+        <v>107.343278060927</v>
       </c>
       <c r="K17" t="n">
-        <v>32.60046611380967</v>
+        <v>340.1081823421052</v>
       </c>
       <c r="L17" t="n">
-        <v>288.687265137977</v>
+        <v>681.150256125906</v>
       </c>
       <c r="M17" t="n">
-        <v>684.7688294680366</v>
+        <v>1077.231820455966</v>
       </c>
       <c r="N17" t="n">
-        <v>1072.62741005367</v>
+        <v>1077.231820455966</v>
       </c>
       <c r="O17" t="n">
-        <v>1393.683631495564</v>
+        <v>1398.288041897859</v>
       </c>
       <c r="P17" t="n">
-        <v>1630.023305690484</v>
+        <v>1529.763812739442</v>
       </c>
       <c r="Q17" t="n">
-        <v>1630.023305690484</v>
+        <v>1630.023305690482</v>
       </c>
       <c r="R17" t="n">
-        <v>1544.014910749168</v>
+        <v>1630.023305690482</v>
       </c>
       <c r="S17" t="n">
-        <v>1356.599088421603</v>
+        <v>1442.607483362918</v>
       </c>
       <c r="T17" t="n">
-        <v>1135.805526828918</v>
+        <v>1221.813921770233</v>
       </c>
       <c r="U17" t="n">
-        <v>1135.805526828918</v>
+        <v>968.0126820245029</v>
       </c>
       <c r="V17" t="n">
-        <v>1135.805526828918</v>
+        <v>636.9497946809322</v>
       </c>
       <c r="W17" t="n">
-        <v>783.0368715588043</v>
+        <v>636.9497946809322</v>
       </c>
       <c r="X17" t="n">
-        <v>783.0368715588043</v>
+        <v>591.6795963364552</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.8975395829925</v>
+        <v>591.6795963364552</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>804.5999275866961</v>
+        <v>505.0844482000589</v>
       </c>
       <c r="C18" t="n">
-        <v>804.5999275866961</v>
+        <v>349.8935049468742</v>
       </c>
       <c r="D18" t="n">
-        <v>655.6655179254449</v>
+        <v>349.8935049468742</v>
       </c>
       <c r="E18" t="n">
-        <v>496.4280629199893</v>
+        <v>349.8935049468742</v>
       </c>
       <c r="F18" t="n">
-        <v>349.8935049468743</v>
+        <v>349.8935049468742</v>
       </c>
       <c r="G18" t="n">
         <v>211.7195174381342</v>
       </c>
       <c r="H18" t="n">
-        <v>103.7282637528852</v>
+        <v>103.7282637528851</v>
       </c>
       <c r="I18" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="J18" t="n">
-        <v>83.42339318698718</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="K18" t="n">
-        <v>83.42339318698718</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="L18" t="n">
-        <v>431.8851485297333</v>
+        <v>381.0622214565557</v>
       </c>
       <c r="M18" t="n">
-        <v>800.6735016050019</v>
+        <v>784.4929896149501</v>
       </c>
       <c r="N18" t="n">
-        <v>1204.104269763397</v>
+        <v>1187.923757773345</v>
       </c>
       <c r="O18" t="n">
-        <v>1204.104269763397</v>
+        <v>1566.526606016232</v>
       </c>
       <c r="P18" t="n">
-        <v>1490.963366017618</v>
+        <v>1630.023305690482</v>
       </c>
       <c r="Q18" t="n">
-        <v>1630.023305690484</v>
+        <v>1630.023305690482</v>
       </c>
       <c r="R18" t="n">
-        <v>1563.426572009909</v>
+        <v>1563.426572009908</v>
       </c>
       <c r="S18" t="n">
-        <v>1563.426572009909</v>
+        <v>1563.426572009908</v>
       </c>
       <c r="T18" t="n">
-        <v>1363.484424903957</v>
+        <v>1363.484424903956</v>
       </c>
       <c r="U18" t="n">
-        <v>1135.297440713284</v>
+        <v>1135.297440713282</v>
       </c>
       <c r="V18" t="n">
-        <v>1135.297440713284</v>
+        <v>1135.297440713282</v>
       </c>
       <c r="W18" t="n">
-        <v>1135.297440713284</v>
+        <v>881.0600839850808</v>
       </c>
       <c r="X18" t="n">
-        <v>1135.297440713284</v>
+        <v>881.0600839850808</v>
       </c>
       <c r="Y18" t="n">
-        <v>972.8152646067642</v>
+        <v>673.299785220127</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="C19" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="D19" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="E19" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="F19" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="G19" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="H19" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="I19" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="J19" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="K19" t="n">
-        <v>63.7119858756315</v>
+        <v>63.71198587563147</v>
       </c>
       <c r="L19" t="n">
-        <v>159.0504544523678</v>
+        <v>159.0504544523677</v>
       </c>
       <c r="M19" t="n">
-        <v>269.9606252213705</v>
+        <v>269.9606252213704</v>
       </c>
       <c r="N19" t="n">
-        <v>383.6682164477601</v>
+        <v>383.66821644776</v>
       </c>
       <c r="O19" t="n">
         <v>472.679285537788</v>
       </c>
       <c r="P19" t="n">
-        <v>525.3229500527797</v>
+        <v>525.3229500527796</v>
       </c>
       <c r="Q19" t="n">
-        <v>525.3229500527797</v>
+        <v>525.3229500527796</v>
       </c>
       <c r="R19" t="n">
-        <v>525.3229500527797</v>
+        <v>367.2292794239206</v>
       </c>
       <c r="S19" t="n">
-        <v>525.3229500527797</v>
+        <v>149.0855343405764</v>
       </c>
       <c r="T19" t="n">
-        <v>322.0176361507703</v>
+        <v>149.0855343405764</v>
       </c>
       <c r="U19" t="n">
-        <v>322.0176361507703</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="V19" t="n">
-        <v>322.0176361507703</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="W19" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="X19" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1135.268616893548</v>
+        <v>972.8220809953548</v>
       </c>
       <c r="C20" t="n">
-        <v>1135.268616893548</v>
+        <v>603.8595640549431</v>
       </c>
       <c r="D20" t="n">
-        <v>777.0029182867979</v>
+        <v>374.9015245784552</v>
       </c>
       <c r="E20" t="n">
-        <v>777.0029182867979</v>
+        <v>374.9015245784552</v>
       </c>
       <c r="F20" t="n">
-        <v>547.3808147369789</v>
+        <v>374.9015245784552</v>
       </c>
       <c r="G20" t="n">
-        <v>547.3808147369789</v>
+        <v>374.9015245784552</v>
       </c>
       <c r="H20" t="n">
-        <v>215.1353171690471</v>
+        <v>42.65602701052334</v>
       </c>
       <c r="I20" t="n">
         <v>42.65602701052334</v>
@@ -5774,28 +5774,28 @@
         <v>2132.801350526167</v>
       </c>
       <c r="R20" t="n">
-        <v>2132.801350526167</v>
+        <v>2046.792955584851</v>
       </c>
       <c r="S20" t="n">
-        <v>2132.801350526167</v>
+        <v>2046.792955584851</v>
       </c>
       <c r="T20" t="n">
-        <v>1912.007788933482</v>
+        <v>2046.792955584851</v>
       </c>
       <c r="U20" t="n">
-        <v>1912.007788933482</v>
+        <v>2046.792955584851</v>
       </c>
       <c r="V20" t="n">
-        <v>1912.007788933482</v>
+        <v>1715.730068241281</v>
       </c>
       <c r="W20" t="n">
-        <v>1912.007788933482</v>
+        <v>1362.961412971167</v>
       </c>
       <c r="X20" t="n">
-        <v>1912.007788933482</v>
+        <v>1362.961412971167</v>
       </c>
       <c r="Y20" t="n">
-        <v>1521.86845695767</v>
+        <v>972.8220809953548</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>542.7626655890899</v>
+        <v>769.04631046421</v>
       </c>
       <c r="C21" t="n">
-        <v>368.3096363079629</v>
+        <v>594.593281183083</v>
       </c>
       <c r="D21" t="n">
-        <v>368.3096363079629</v>
+        <v>594.593281183083</v>
       </c>
       <c r="E21" t="n">
-        <v>368.3096363079629</v>
+        <v>435.3558261776275</v>
       </c>
       <c r="F21" t="n">
-        <v>221.7750783348479</v>
+        <v>288.8212682045124</v>
       </c>
       <c r="G21" t="n">
-        <v>221.7750783348479</v>
+        <v>150.6472806957724</v>
       </c>
       <c r="H21" t="n">
-        <v>113.7838246495988</v>
+        <v>42.65602701052334</v>
       </c>
       <c r="I21" t="n">
         <v>42.65602701052334</v>
@@ -5832,19 +5832,19 @@
         <v>93.47895408370084</v>
       </c>
       <c r="K21" t="n">
-        <v>306.9642745232951</v>
+        <v>173.7970841581564</v>
       </c>
       <c r="L21" t="n">
-        <v>655.4260298660412</v>
+        <v>522.2588395009025</v>
       </c>
       <c r="M21" t="n">
-        <v>1114.043684112154</v>
+        <v>980.8764937470148</v>
       </c>
       <c r="N21" t="n">
-        <v>1600.506596394197</v>
+        <v>1467.339406029058</v>
       </c>
       <c r="O21" t="n">
-        <v>1979.109444637084</v>
+        <v>1845.942254271946</v>
       </c>
       <c r="P21" t="n">
         <v>2132.801350526167</v>
@@ -5853,28 +5853,28 @@
         <v>2132.801350526167</v>
       </c>
       <c r="R21" t="n">
-        <v>2066.204616845593</v>
+        <v>2132.801350526167</v>
       </c>
       <c r="S21" t="n">
-        <v>1903.13029222218</v>
+        <v>1969.727025902754</v>
       </c>
       <c r="T21" t="n">
-        <v>1703.188145116228</v>
+        <v>1769.784878796802</v>
       </c>
       <c r="U21" t="n">
-        <v>1475.001160925554</v>
+        <v>1607.110803182966</v>
       </c>
       <c r="V21" t="n">
-        <v>1380.827158307846</v>
+        <v>1607.110803182966</v>
       </c>
       <c r="W21" t="n">
-        <v>1126.589801579645</v>
+        <v>1352.873446454765</v>
       </c>
       <c r="X21" t="n">
-        <v>918.7383013741119</v>
+        <v>1145.021946249232</v>
       </c>
       <c r="Y21" t="n">
-        <v>710.978002609158</v>
+        <v>937.261647484278</v>
       </c>
     </row>
     <row r="22">
@@ -5932,28 +5932,28 @@
         <v>535.3785109494933</v>
       </c>
       <c r="R22" t="n">
-        <v>377.2848403206343</v>
+        <v>535.3785109494933</v>
       </c>
       <c r="S22" t="n">
-        <v>377.2848403206343</v>
+        <v>317.234765866149</v>
       </c>
       <c r="T22" t="n">
-        <v>377.2848403206343</v>
+        <v>317.234765866149</v>
       </c>
       <c r="U22" t="n">
-        <v>297.3405152164102</v>
+        <v>317.234765866149</v>
       </c>
       <c r="V22" t="n">
-        <v>42.65602701052334</v>
+        <v>317.234765866149</v>
       </c>
       <c r="W22" t="n">
-        <v>42.65602701052334</v>
+        <v>317.234765866149</v>
       </c>
       <c r="X22" t="n">
-        <v>42.65602701052334</v>
+        <v>89.24521496813168</v>
       </c>
       <c r="Y22" t="n">
-        <v>42.65602701052334</v>
+        <v>89.24521496813168</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>785.4062586677903</v>
+        <v>535.1445108337502</v>
       </c>
       <c r="C23" t="n">
-        <v>785.4062586677903</v>
+        <v>535.1445108337502</v>
       </c>
       <c r="D23" t="n">
-        <v>785.4062586677903</v>
+        <v>535.1445108337502</v>
       </c>
       <c r="E23" t="n">
-        <v>785.4062586677903</v>
+        <v>374.9015245784552</v>
       </c>
       <c r="F23" t="n">
-        <v>785.4062586677903</v>
+        <v>374.9015245784552</v>
       </c>
       <c r="G23" t="n">
-        <v>366.9492707682049</v>
+        <v>374.9015245784552</v>
       </c>
       <c r="H23" t="n">
-        <v>215.1353171690471</v>
+        <v>42.65602701052334</v>
       </c>
       <c r="I23" t="n">
         <v>42.65602701052334</v>
@@ -5990,10 +5990,10 @@
         <v>117.3988389576407</v>
       </c>
       <c r="K23" t="n">
-        <v>350.1637432388189</v>
+        <v>350.1637432388188</v>
       </c>
       <c r="L23" t="n">
-        <v>691.2058170226197</v>
+        <v>691.2058170226198</v>
       </c>
       <c r="M23" t="n">
         <v>1087.287381352679</v>
@@ -6020,19 +6020,19 @@
         <v>1859.377133257287</v>
       </c>
       <c r="U23" t="n">
-        <v>1859.377133257287</v>
+        <v>1605.575893511557</v>
       </c>
       <c r="V23" t="n">
-        <v>1528.314245913716</v>
+        <v>1274.513006167986</v>
       </c>
       <c r="W23" t="n">
-        <v>1175.545590643602</v>
+        <v>921.744350897872</v>
       </c>
       <c r="X23" t="n">
-        <v>1175.545590643602</v>
+        <v>921.744350897872</v>
       </c>
       <c r="Y23" t="n">
-        <v>785.4062586677903</v>
+        <v>921.744350897872</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>704.3999722826817</v>
+        <v>569.999896995123</v>
       </c>
       <c r="C24" t="n">
-        <v>529.9469430015547</v>
+        <v>569.999896995123</v>
       </c>
       <c r="D24" t="n">
-        <v>381.0125333403034</v>
+        <v>421.0654873338717</v>
       </c>
       <c r="E24" t="n">
-        <v>221.7750783348479</v>
+        <v>421.0654873338717</v>
       </c>
       <c r="F24" t="n">
-        <v>221.7750783348479</v>
+        <v>274.5309293607567</v>
       </c>
       <c r="G24" t="n">
-        <v>221.7750783348479</v>
+        <v>136.3569418520166</v>
       </c>
       <c r="H24" t="n">
         <v>113.7838246495988</v>
@@ -6075,16 +6075,16 @@
         <v>655.4260298660412</v>
       </c>
       <c r="M24" t="n">
-        <v>841.8165540741491</v>
+        <v>1114.043684112154</v>
       </c>
       <c r="N24" t="n">
-        <v>1328.279466356192</v>
+        <v>1467.339406029058</v>
       </c>
       <c r="O24" t="n">
-        <v>1706.88231459908</v>
+        <v>1845.942254271946</v>
       </c>
       <c r="P24" t="n">
-        <v>1993.741410853301</v>
+        <v>2132.801350526167</v>
       </c>
       <c r="Q24" t="n">
         <v>2132.801350526167</v>
@@ -6093,25 +6093,25 @@
         <v>2066.204616845593</v>
       </c>
       <c r="S24" t="n">
-        <v>1997.985405764852</v>
+        <v>1903.13029222218</v>
       </c>
       <c r="T24" t="n">
-        <v>1798.0432586589</v>
+        <v>1703.188145116228</v>
       </c>
       <c r="U24" t="n">
-        <v>1569.856274468227</v>
+        <v>1475.001160925554</v>
       </c>
       <c r="V24" t="n">
-        <v>1334.704166236484</v>
+        <v>1239.849052693811</v>
       </c>
       <c r="W24" t="n">
-        <v>1080.466809508282</v>
+        <v>985.6116959656097</v>
       </c>
       <c r="X24" t="n">
-        <v>872.6153093027497</v>
+        <v>777.7601957600768</v>
       </c>
       <c r="Y24" t="n">
-        <v>872.6153093027497</v>
+        <v>569.999896995123</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>42.65602701052334</v>
+        <v>1786.968814085107</v>
       </c>
       <c r="C25" t="n">
-        <v>42.65602701052334</v>
+        <v>1786.968814085107</v>
       </c>
       <c r="D25" t="n">
-        <v>42.65602701052334</v>
+        <v>1786.968814085107</v>
       </c>
       <c r="E25" t="n">
-        <v>42.65602701052334</v>
+        <v>1786.968814085107</v>
       </c>
       <c r="F25" t="n">
-        <v>42.65602701052334</v>
+        <v>1640.078866587197</v>
       </c>
       <c r="G25" t="n">
-        <v>42.65602701052334</v>
+        <v>1640.078866587197</v>
       </c>
       <c r="H25" t="n">
-        <v>42.65602701052334</v>
+        <v>1640.078866587197</v>
       </c>
       <c r="I25" t="n">
-        <v>42.65602701052334</v>
+        <v>1640.078866587197</v>
       </c>
       <c r="J25" t="n">
-        <v>42.65602701052334</v>
+        <v>1640.078866587197</v>
       </c>
       <c r="K25" t="n">
-        <v>73.76754677234517</v>
+        <v>1671.190386349019</v>
       </c>
       <c r="L25" t="n">
-        <v>169.1060153490814</v>
+        <v>1766.528854925755</v>
       </c>
       <c r="M25" t="n">
-        <v>280.0161861180841</v>
+        <v>1877.439025694758</v>
       </c>
       <c r="N25" t="n">
-        <v>393.7237773444737</v>
+        <v>1991.146616921147</v>
       </c>
       <c r="O25" t="n">
-        <v>482.7348464345017</v>
+        <v>2080.157686011175</v>
       </c>
       <c r="P25" t="n">
-        <v>535.3785109494933</v>
+        <v>2132.801350526167</v>
       </c>
       <c r="Q25" t="n">
-        <v>535.3785109494933</v>
+        <v>2132.801350526167</v>
       </c>
       <c r="R25" t="n">
-        <v>535.3785109494933</v>
+        <v>2132.801350526167</v>
       </c>
       <c r="S25" t="n">
-        <v>317.234765866149</v>
+        <v>2132.801350526167</v>
       </c>
       <c r="T25" t="n">
-        <v>317.234765866149</v>
+        <v>2132.801350526167</v>
       </c>
       <c r="U25" t="n">
-        <v>317.234765866149</v>
+        <v>2132.801350526167</v>
       </c>
       <c r="V25" t="n">
-        <v>317.234765866149</v>
+        <v>2132.801350526167</v>
       </c>
       <c r="W25" t="n">
-        <v>42.65602701052334</v>
+        <v>1843.384180489206</v>
       </c>
       <c r="X25" t="n">
-        <v>42.65602701052334</v>
+        <v>1786.968814085107</v>
       </c>
       <c r="Y25" t="n">
-        <v>42.65602701052334</v>
+        <v>1786.968814085107</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>626.1212219586546</v>
+        <v>1406.566936994973</v>
       </c>
       <c r="C26" t="n">
-        <v>626.1212219586546</v>
+        <v>1406.566936994973</v>
       </c>
       <c r="D26" t="n">
-        <v>626.1212219586546</v>
+        <v>1406.566936994973</v>
       </c>
       <c r="E26" t="n">
-        <v>626.1212219586546</v>
+        <v>1020.778684396728</v>
       </c>
       <c r="F26" t="n">
-        <v>215.1353171690471</v>
+        <v>609.7927796071208</v>
       </c>
       <c r="G26" t="n">
-        <v>215.1353171690471</v>
+        <v>191.3357917075354</v>
       </c>
       <c r="H26" t="n">
-        <v>215.1353171690471</v>
+        <v>191.3357917075354</v>
       </c>
       <c r="I26" t="n">
         <v>42.65602701052333</v>
@@ -6239,7 +6239,7 @@
         <v>1475.145961938313</v>
       </c>
       <c r="O26" t="n">
-        <v>1796.202183380207</v>
+        <v>1796.202183380206</v>
       </c>
       <c r="P26" t="n">
         <v>2032.541857575126</v>
@@ -6254,22 +6254,22 @@
         <v>2132.801350526167</v>
       </c>
       <c r="T26" t="n">
-        <v>2070.018362897541</v>
+        <v>2132.801350526167</v>
       </c>
       <c r="U26" t="n">
-        <v>2070.018362897541</v>
+        <v>2132.801350526167</v>
       </c>
       <c r="V26" t="n">
-        <v>1738.95547555397</v>
+        <v>2132.801350526167</v>
       </c>
       <c r="W26" t="n">
-        <v>1386.186820283856</v>
+        <v>1780.032695256052</v>
       </c>
       <c r="X26" t="n">
-        <v>1012.721062022776</v>
+        <v>1406.566936994973</v>
       </c>
       <c r="Y26" t="n">
-        <v>1012.721062022776</v>
+        <v>1406.566936994973</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>468.3812936556288</v>
+        <v>799.6709552991097</v>
       </c>
       <c r="C27" t="n">
-        <v>400.8922218195901</v>
+        <v>655.4180334779542</v>
       </c>
       <c r="D27" t="n">
-        <v>251.9578121583388</v>
+        <v>506.4836238167029</v>
       </c>
       <c r="E27" t="n">
-        <v>251.9578121583388</v>
+        <v>506.4836238167029</v>
       </c>
       <c r="F27" t="n">
-        <v>251.9578121583388</v>
+        <v>359.9490658435879</v>
       </c>
       <c r="G27" t="n">
-        <v>113.7838246495988</v>
+        <v>221.7750783348479</v>
       </c>
       <c r="H27" t="n">
         <v>113.7838246495988</v>
@@ -6309,7 +6309,7 @@
         <v>306.9642745232951</v>
       </c>
       <c r="L27" t="n">
-        <v>383.1988998280362</v>
+        <v>655.4260298660412</v>
       </c>
       <c r="M27" t="n">
         <v>841.8165540741486</v>
@@ -6330,25 +6330,25 @@
         <v>2132.801350526167</v>
       </c>
       <c r="S27" t="n">
-        <v>1969.727025902753</v>
+        <v>2132.801350526167</v>
       </c>
       <c r="T27" t="n">
-        <v>1769.784878796801</v>
+        <v>1932.859203420214</v>
       </c>
       <c r="U27" t="n">
-        <v>1541.597894606128</v>
+        <v>1704.672219229541</v>
       </c>
       <c r="V27" t="n">
-        <v>1306.445786374385</v>
+        <v>1469.520110997798</v>
       </c>
       <c r="W27" t="n">
-        <v>1052.208429646184</v>
+        <v>1215.282754269596</v>
       </c>
       <c r="X27" t="n">
-        <v>844.3569294406507</v>
+        <v>1007.431254064064</v>
       </c>
       <c r="Y27" t="n">
-        <v>636.5966306756968</v>
+        <v>799.6709552991097</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>125.4766311959366</v>
+        <v>1843.615673445518</v>
       </c>
       <c r="C28" t="n">
-        <v>125.4766311959366</v>
+        <v>1843.615673445518</v>
       </c>
       <c r="D28" t="n">
-        <v>125.4766311959366</v>
+        <v>1783.060570837627</v>
       </c>
       <c r="E28" t="n">
-        <v>125.4766311959366</v>
+        <v>1783.060570837627</v>
       </c>
       <c r="F28" t="n">
-        <v>125.4766311959366</v>
+        <v>1783.060570837627</v>
       </c>
       <c r="G28" t="n">
-        <v>125.4766311959366</v>
+        <v>1783.060570837627</v>
       </c>
       <c r="H28" t="n">
-        <v>42.65602701052333</v>
+        <v>1783.060570837627</v>
       </c>
       <c r="I28" t="n">
-        <v>42.65602701052333</v>
+        <v>1640.078866587196</v>
       </c>
       <c r="J28" t="n">
-        <v>42.65602701052333</v>
+        <v>1640.078866587196</v>
       </c>
       <c r="K28" t="n">
-        <v>73.76754677234516</v>
+        <v>1671.190386349018</v>
       </c>
       <c r="L28" t="n">
-        <v>169.1060153490814</v>
+        <v>1766.528854925755</v>
       </c>
       <c r="M28" t="n">
-        <v>280.0161861180841</v>
+        <v>1877.439025694757</v>
       </c>
       <c r="N28" t="n">
-        <v>393.7237773444737</v>
+        <v>1991.146616921147</v>
       </c>
       <c r="O28" t="n">
-        <v>482.7348464345016</v>
+        <v>2080.157686011175</v>
       </c>
       <c r="P28" t="n">
-        <v>535.3785109494933</v>
+        <v>2132.801350526167</v>
       </c>
       <c r="Q28" t="n">
-        <v>535.3785109494933</v>
+        <v>2132.801350526167</v>
       </c>
       <c r="R28" t="n">
-        <v>535.3785109494933</v>
+        <v>2132.801350526167</v>
       </c>
       <c r="S28" t="n">
-        <v>535.3785109494933</v>
+        <v>2132.801350526167</v>
       </c>
       <c r="T28" t="n">
-        <v>307.1250960261763</v>
+        <v>2132.801350526167</v>
       </c>
       <c r="U28" t="n">
-        <v>307.1250960261763</v>
+        <v>1843.615673445518</v>
       </c>
       <c r="V28" t="n">
-        <v>307.1250960261763</v>
+        <v>1843.615673445518</v>
       </c>
       <c r="W28" t="n">
-        <v>307.1250960261763</v>
+        <v>1843.615673445518</v>
       </c>
       <c r="X28" t="n">
-        <v>307.1250960261763</v>
+        <v>1843.615673445518</v>
       </c>
       <c r="Y28" t="n">
-        <v>307.1250960261763</v>
+        <v>1843.615673445518</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>547.3808147369789</v>
+        <v>755.5680113143594</v>
       </c>
       <c r="C29" t="n">
-        <v>547.3808147369789</v>
+        <v>755.5680113143594</v>
       </c>
       <c r="D29" t="n">
-        <v>547.3808147369789</v>
+        <v>755.5680113143594</v>
       </c>
       <c r="E29" t="n">
-        <v>547.3808147369789</v>
+        <v>461.1130149101087</v>
       </c>
       <c r="F29" t="n">
-        <v>547.3808147369789</v>
+        <v>461.1130149101087</v>
       </c>
       <c r="G29" t="n">
-        <v>547.3808147369789</v>
+        <v>42.65602701052334</v>
       </c>
       <c r="H29" t="n">
-        <v>215.1353171690471</v>
+        <v>42.65602701052334</v>
       </c>
       <c r="I29" t="n">
         <v>42.65602701052334</v>
@@ -6467,7 +6467,7 @@
         <v>350.1637432388189</v>
       </c>
       <c r="L29" t="n">
-        <v>691.2058170226197</v>
+        <v>691.2058170226198</v>
       </c>
       <c r="M29" t="n">
         <v>1087.287381352679</v>
@@ -6488,25 +6488,25 @@
         <v>2046.792955584851</v>
       </c>
       <c r="S29" t="n">
-        <v>1859.377133257287</v>
+        <v>2046.792955584851</v>
       </c>
       <c r="T29" t="n">
-        <v>1638.583571664602</v>
+        <v>1825.999393992166</v>
       </c>
       <c r="U29" t="n">
-        <v>1384.782331918871</v>
+        <v>1825.999393992166</v>
       </c>
       <c r="V29" t="n">
-        <v>1053.719444575301</v>
+        <v>1494.936506648595</v>
       </c>
       <c r="W29" t="n">
-        <v>1053.719444575301</v>
+        <v>1142.167851378481</v>
       </c>
       <c r="X29" t="n">
-        <v>937.5201467127906</v>
+        <v>1142.167851378481</v>
       </c>
       <c r="Y29" t="n">
-        <v>547.3808147369789</v>
+        <v>1142.167851378481</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>680.9366530978299</v>
+        <v>468.3812936556292</v>
       </c>
       <c r="C30" t="n">
-        <v>506.4836238167029</v>
+        <v>468.3812936556292</v>
       </c>
       <c r="D30" t="n">
-        <v>506.4836238167029</v>
+        <v>319.446883994378</v>
       </c>
       <c r="E30" t="n">
-        <v>506.4836238167029</v>
+        <v>319.446883994378</v>
       </c>
       <c r="F30" t="n">
-        <v>359.9490658435879</v>
+        <v>319.446883994378</v>
       </c>
       <c r="G30" t="n">
-        <v>221.7750783348479</v>
+        <v>181.2728964856379</v>
       </c>
       <c r="H30" t="n">
         <v>113.7838246495988</v>
@@ -6543,49 +6543,49 @@
         <v>93.47895408370084</v>
       </c>
       <c r="K30" t="n">
-        <v>306.9642745232951</v>
+        <v>93.47895408370084</v>
       </c>
       <c r="L30" t="n">
-        <v>655.4260298660412</v>
+        <v>441.9407094264469</v>
       </c>
       <c r="M30" t="n">
-        <v>1114.043684112154</v>
+        <v>900.5583636725593</v>
       </c>
       <c r="N30" t="n">
-        <v>1467.339406029058</v>
+        <v>1387.021275954602</v>
       </c>
       <c r="O30" t="n">
-        <v>1845.942254271946</v>
+        <v>1765.62412419749</v>
       </c>
       <c r="P30" t="n">
-        <v>2132.801350526167</v>
+        <v>2052.483220451711</v>
       </c>
       <c r="Q30" t="n">
         <v>2132.801350526167</v>
       </c>
       <c r="R30" t="n">
-        <v>2066.204616845593</v>
+        <v>2132.801350526167</v>
       </c>
       <c r="S30" t="n">
-        <v>1903.13029222218</v>
+        <v>1969.727025902754</v>
       </c>
       <c r="T30" t="n">
-        <v>1703.188145116228</v>
+        <v>1769.784878796802</v>
       </c>
       <c r="U30" t="n">
-        <v>1475.001160925554</v>
+        <v>1541.597894606128</v>
       </c>
       <c r="V30" t="n">
-        <v>1239.849052693811</v>
+        <v>1306.445786374386</v>
       </c>
       <c r="W30" t="n">
-        <v>985.6116959656097</v>
+        <v>1052.208429646184</v>
       </c>
       <c r="X30" t="n">
-        <v>985.6116959656097</v>
+        <v>844.3569294406511</v>
       </c>
       <c r="Y30" t="n">
-        <v>777.8513972006558</v>
+        <v>636.5966306756973</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42.65602701052334</v>
+        <v>1701.375890982514</v>
       </c>
       <c r="C31" t="n">
-        <v>42.65602701052334</v>
+        <v>1701.375890982514</v>
       </c>
       <c r="D31" t="n">
-        <v>42.65602701052334</v>
+        <v>1701.375890982514</v>
       </c>
       <c r="E31" t="n">
-        <v>42.65602701052334</v>
+        <v>1701.375890982514</v>
       </c>
       <c r="F31" t="n">
-        <v>42.65602701052334</v>
+        <v>1701.375890982514</v>
       </c>
       <c r="G31" t="n">
-        <v>42.65602701052334</v>
+        <v>1701.375890982514</v>
       </c>
       <c r="H31" t="n">
-        <v>42.65602701052334</v>
+        <v>1701.375890982514</v>
       </c>
       <c r="I31" t="n">
-        <v>42.65602701052334</v>
+        <v>1701.375890982514</v>
       </c>
       <c r="J31" t="n">
-        <v>42.65602701052334</v>
+        <v>1640.078866587197</v>
       </c>
       <c r="K31" t="n">
-        <v>73.76754677234517</v>
+        <v>1671.190386349019</v>
       </c>
       <c r="L31" t="n">
-        <v>169.1060153490814</v>
+        <v>1766.528854925755</v>
       </c>
       <c r="M31" t="n">
-        <v>280.0161861180841</v>
+        <v>1877.439025694758</v>
       </c>
       <c r="N31" t="n">
-        <v>393.7237773444737</v>
+        <v>1991.146616921147</v>
       </c>
       <c r="O31" t="n">
-        <v>482.7348464345017</v>
+        <v>2080.157686011175</v>
       </c>
       <c r="P31" t="n">
-        <v>535.3785109494933</v>
+        <v>2132.801350526167</v>
       </c>
       <c r="Q31" t="n">
-        <v>535.3785109494933</v>
+        <v>2084.859981700717</v>
       </c>
       <c r="R31" t="n">
-        <v>535.3785109494933</v>
+        <v>2084.859981700717</v>
       </c>
       <c r="S31" t="n">
-        <v>535.3785109494933</v>
+        <v>2084.859981700717</v>
       </c>
       <c r="T31" t="n">
-        <v>535.3785109494933</v>
+        <v>2084.859981700717</v>
       </c>
       <c r="U31" t="n">
-        <v>535.3785109494933</v>
+        <v>2084.859981700717</v>
       </c>
       <c r="V31" t="n">
-        <v>332.073197047484</v>
+        <v>1830.17549349483</v>
       </c>
       <c r="W31" t="n">
-        <v>42.65602701052334</v>
+        <v>1830.17549349483</v>
       </c>
       <c r="X31" t="n">
-        <v>42.65602701052334</v>
+        <v>1830.17549349483</v>
       </c>
       <c r="Y31" t="n">
-        <v>42.65602701052334</v>
+        <v>1830.17549349483</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1529.941380573058</v>
+        <v>1155.67249515593</v>
       </c>
       <c r="C32" t="n">
-        <v>1529.941380573058</v>
+        <v>786.709978215518</v>
       </c>
       <c r="D32" t="n">
-        <v>1171.675681966307</v>
+        <v>428.4442796087676</v>
       </c>
       <c r="E32" t="n">
-        <v>785.8874293680628</v>
+        <v>42.65602701052334</v>
       </c>
       <c r="F32" t="n">
-        <v>374.9015245784552</v>
+        <v>42.65602701052334</v>
       </c>
       <c r="G32" t="n">
-        <v>374.9015245784552</v>
+        <v>42.65602701052334</v>
       </c>
       <c r="H32" t="n">
         <v>42.65602701052334</v>
@@ -6701,10 +6701,10 @@
         <v>117.3988389576407</v>
       </c>
       <c r="K32" t="n">
-        <v>350.1637432388188</v>
+        <v>350.1637432388189</v>
       </c>
       <c r="L32" t="n">
-        <v>691.20581702262</v>
+        <v>691.2058170226198</v>
       </c>
       <c r="M32" t="n">
         <v>1087.287381352679</v>
@@ -6725,25 +6725,25 @@
         <v>2132.801350526167</v>
       </c>
       <c r="S32" t="n">
-        <v>1945.385528198603</v>
+        <v>2132.801350526167</v>
       </c>
       <c r="T32" t="n">
-        <v>1724.591966605918</v>
+        <v>2132.801350526167</v>
       </c>
       <c r="U32" t="n">
-        <v>1724.591966605918</v>
+        <v>2132.801350526167</v>
       </c>
       <c r="V32" t="n">
-        <v>1529.941380573058</v>
+        <v>2132.801350526167</v>
       </c>
       <c r="W32" t="n">
-        <v>1529.941380573058</v>
+        <v>2132.801350526167</v>
       </c>
       <c r="X32" t="n">
-        <v>1529.941380573058</v>
+        <v>1759.335592265087</v>
       </c>
       <c r="Y32" t="n">
-        <v>1529.941380573058</v>
+        <v>1542.272335220051</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>545.1625172772261</v>
+        <v>771.4461621523461</v>
       </c>
       <c r="C33" t="n">
-        <v>370.7094879960991</v>
+        <v>596.9931328712191</v>
       </c>
       <c r="D33" t="n">
-        <v>221.7750783348479</v>
+        <v>448.0587232099679</v>
       </c>
       <c r="E33" t="n">
-        <v>221.7750783348479</v>
+        <v>288.8212682045124</v>
       </c>
       <c r="F33" t="n">
-        <v>221.7750783348479</v>
+        <v>288.8212682045124</v>
       </c>
       <c r="G33" t="n">
-        <v>221.7750783348479</v>
+        <v>150.6472806957724</v>
       </c>
       <c r="H33" t="n">
-        <v>113.7838246495988</v>
+        <v>42.65602701052334</v>
       </c>
       <c r="I33" t="n">
         <v>42.65602701052334</v>
@@ -6783,7 +6783,7 @@
         <v>306.9642745232951</v>
       </c>
       <c r="L33" t="n">
-        <v>655.4260298660412</v>
+        <v>383.1988998280367</v>
       </c>
       <c r="M33" t="n">
         <v>841.8165540741491</v>
@@ -6810,19 +6810,19 @@
         <v>1769.784878796802</v>
       </c>
       <c r="U33" t="n">
-        <v>1541.597894606128</v>
+        <v>1636.902464337891</v>
       </c>
       <c r="V33" t="n">
-        <v>1306.445786374386</v>
+        <v>1401.750356106149</v>
       </c>
       <c r="W33" t="n">
-        <v>1052.208429646184</v>
+        <v>1147.512999377947</v>
       </c>
       <c r="X33" t="n">
-        <v>921.138153062248</v>
+        <v>939.6614991724141</v>
       </c>
       <c r="Y33" t="n">
-        <v>713.3778542972941</v>
+        <v>939.6614991724141</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>359.7901443335437</v>
+        <v>371.5923011588259</v>
       </c>
       <c r="C34" t="n">
-        <v>359.7901443335437</v>
+        <v>371.5923011588259</v>
       </c>
       <c r="D34" t="n">
-        <v>359.7901443335437</v>
+        <v>371.5923011588259</v>
       </c>
       <c r="E34" t="n">
-        <v>211.8770507511506</v>
+        <v>371.5923011588259</v>
       </c>
       <c r="F34" t="n">
-        <v>211.8770507511506</v>
+        <v>371.5923011588259</v>
       </c>
       <c r="G34" t="n">
-        <v>42.65602701052334</v>
+        <v>202.3712774181986</v>
       </c>
       <c r="H34" t="n">
         <v>42.65602701052334</v>
@@ -6898,10 +6898,10 @@
         <v>535.3785109494933</v>
       </c>
       <c r="X34" t="n">
-        <v>535.3785109494933</v>
+        <v>371.5923011588259</v>
       </c>
       <c r="Y34" t="n">
-        <v>359.7901443335437</v>
+        <v>371.5923011588259</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>32.60046611380967</v>
+        <v>882.0042870831879</v>
       </c>
       <c r="C35" t="n">
-        <v>32.60046611380967</v>
+        <v>882.0042870831879</v>
       </c>
       <c r="D35" t="n">
-        <v>32.60046611380967</v>
+        <v>882.0042870831879</v>
       </c>
       <c r="E35" t="n">
-        <v>32.60046611380967</v>
+        <v>616.7018031638696</v>
       </c>
       <c r="F35" t="n">
-        <v>32.60046611380967</v>
+        <v>616.7018031638696</v>
       </c>
       <c r="G35" t="n">
-        <v>32.60046611380967</v>
+        <v>205.0797562723334</v>
       </c>
       <c r="H35" t="n">
-        <v>32.60046611380967</v>
+        <v>205.0797562723334</v>
       </c>
       <c r="I35" t="n">
         <v>32.60046611380967</v>
       </c>
       <c r="J35" t="n">
-        <v>107.343278060927</v>
+        <v>32.60046611380967</v>
       </c>
       <c r="K35" t="n">
-        <v>340.1081823421052</v>
+        <v>265.3653703949878</v>
       </c>
       <c r="L35" t="n">
-        <v>681.150256125906</v>
+        <v>606.4074441787886</v>
       </c>
       <c r="M35" t="n">
-        <v>921.1085036629562</v>
+        <v>684.7688294680366</v>
       </c>
       <c r="N35" t="n">
-        <v>1308.96708424859</v>
+        <v>1072.62741005367</v>
       </c>
       <c r="O35" t="n">
-        <v>1630.023305690484</v>
+        <v>1393.683631495564</v>
       </c>
       <c r="P35" t="n">
-        <v>1630.023305690484</v>
+        <v>1630.023305690483</v>
       </c>
       <c r="Q35" t="n">
-        <v>1630.023305690484</v>
+        <v>1630.023305690483</v>
       </c>
       <c r="R35" t="n">
-        <v>1544.014910749168</v>
+        <v>1544.014910749167</v>
       </c>
       <c r="S35" t="n">
-        <v>1544.014910749168</v>
+        <v>1356.599088421603</v>
       </c>
       <c r="T35" t="n">
-        <v>1544.014910749168</v>
+        <v>1135.805526828918</v>
       </c>
       <c r="U35" t="n">
-        <v>1290.213671003437</v>
+        <v>882.0042870831879</v>
       </c>
       <c r="V35" t="n">
-        <v>959.1507836598668</v>
+        <v>882.0042870831879</v>
       </c>
       <c r="W35" t="n">
-        <v>606.3821283897526</v>
+        <v>882.0042870831879</v>
       </c>
       <c r="X35" t="n">
-        <v>606.3821283897526</v>
+        <v>882.0042870831879</v>
       </c>
       <c r="Y35" t="n">
-        <v>216.2427964139408</v>
+        <v>882.0042870831879</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>551.470304722729</v>
+        <v>840.878969359083</v>
       </c>
       <c r="C36" t="n">
-        <v>551.470304722729</v>
+        <v>666.4259400779561</v>
       </c>
       <c r="D36" t="n">
-        <v>551.470304722729</v>
+        <v>517.4915304167048</v>
       </c>
       <c r="E36" t="n">
-        <v>392.2328497172735</v>
+        <v>358.2540754112492</v>
       </c>
       <c r="F36" t="n">
-        <v>245.6982917441585</v>
+        <v>211.7195174381342</v>
       </c>
       <c r="G36" t="n">
-        <v>107.5243042354184</v>
+        <v>211.7195174381342</v>
       </c>
       <c r="H36" t="n">
-        <v>32.60046611380967</v>
+        <v>103.7282637528851</v>
       </c>
       <c r="I36" t="n">
         <v>32.60046611380967</v>
       </c>
       <c r="J36" t="n">
-        <v>83.42339318698718</v>
+        <v>32.60046611380967</v>
       </c>
       <c r="K36" t="n">
-        <v>296.9087136265814</v>
+        <v>246.0857865534039</v>
       </c>
       <c r="L36" t="n">
-        <v>645.3704689693275</v>
+        <v>594.5475418961499</v>
       </c>
       <c r="M36" t="n">
-        <v>1048.801237127722</v>
+        <v>594.5475418961499</v>
       </c>
       <c r="N36" t="n">
-        <v>1204.104269763397</v>
+        <v>964.5613611933742</v>
       </c>
       <c r="O36" t="n">
-        <v>1204.104269763397</v>
+        <v>1343.164209436262</v>
       </c>
       <c r="P36" t="n">
-        <v>1490.963366017618</v>
+        <v>1630.023305690483</v>
       </c>
       <c r="Q36" t="n">
-        <v>1630.023305690484</v>
+        <v>1630.023305690483</v>
       </c>
       <c r="R36" t="n">
-        <v>1563.426572009909</v>
+        <v>1630.023305690483</v>
       </c>
       <c r="S36" t="n">
-        <v>1563.426572009909</v>
+        <v>1630.023305690483</v>
       </c>
       <c r="T36" t="n">
-        <v>1363.484424903957</v>
+        <v>1491.642876561313</v>
       </c>
       <c r="U36" t="n">
-        <v>1135.297440713284</v>
+        <v>1491.642876561313</v>
       </c>
       <c r="V36" t="n">
-        <v>1135.297440713284</v>
+        <v>1256.49076832957</v>
       </c>
       <c r="W36" t="n">
-        <v>1135.297440713284</v>
+        <v>1256.49076832957</v>
       </c>
       <c r="X36" t="n">
-        <v>927.4459405077509</v>
+        <v>1048.639268124037</v>
       </c>
       <c r="Y36" t="n">
-        <v>719.6856417427971</v>
+        <v>840.878969359083</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.60046611380967</v>
+        <v>236.8791947595578</v>
       </c>
       <c r="C37" t="n">
-        <v>32.60046611380967</v>
+        <v>236.8791947595578</v>
       </c>
       <c r="D37" t="n">
-        <v>32.60046611380967</v>
+        <v>236.8791947595578</v>
       </c>
       <c r="E37" t="n">
-        <v>32.60046611380967</v>
+        <v>236.8791947595578</v>
       </c>
       <c r="F37" t="n">
-        <v>32.60046611380967</v>
+        <v>236.8791947595578</v>
       </c>
       <c r="G37" t="n">
-        <v>32.60046611380967</v>
+        <v>236.8791947595578</v>
       </c>
       <c r="H37" t="n">
-        <v>32.60046611380967</v>
+        <v>236.8791947595578</v>
       </c>
       <c r="I37" t="n">
-        <v>32.60046611380967</v>
+        <v>93.89749050912678</v>
       </c>
       <c r="J37" t="n">
         <v>32.60046611380967</v>
@@ -7114,31 +7114,31 @@
         <v>525.3229500527797</v>
       </c>
       <c r="Q37" t="n">
-        <v>525.3229500527797</v>
+        <v>477.3815812273299</v>
       </c>
       <c r="R37" t="n">
-        <v>525.3229500527797</v>
+        <v>477.3815812273299</v>
       </c>
       <c r="S37" t="n">
-        <v>525.3229500527797</v>
+        <v>477.3815812273299</v>
       </c>
       <c r="T37" t="n">
-        <v>525.3229500527797</v>
+        <v>477.3815812273299</v>
       </c>
       <c r="U37" t="n">
-        <v>236.1372729721316</v>
+        <v>477.3815812273299</v>
       </c>
       <c r="V37" t="n">
-        <v>32.60046611380967</v>
+        <v>477.3815812273299</v>
       </c>
       <c r="W37" t="n">
-        <v>32.60046611380967</v>
+        <v>236.8791947595578</v>
       </c>
       <c r="X37" t="n">
-        <v>32.60046611380967</v>
+        <v>236.8791947595578</v>
       </c>
       <c r="Y37" t="n">
-        <v>32.60046611380967</v>
+        <v>236.8791947595578</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>32.60046611380967</v>
+        <v>1239.883973714671</v>
       </c>
       <c r="C38" t="n">
-        <v>32.60046611380967</v>
+        <v>1239.883973714671</v>
       </c>
       <c r="D38" t="n">
-        <v>32.60046611380967</v>
+        <v>1161.620121069593</v>
       </c>
       <c r="E38" t="n">
-        <v>32.60046611380967</v>
+        <v>775.831868471349</v>
       </c>
       <c r="F38" t="n">
-        <v>32.60046611380967</v>
+        <v>364.8459636817415</v>
       </c>
       <c r="G38" t="n">
-        <v>32.60046611380967</v>
+        <v>364.8459636817415</v>
       </c>
       <c r="H38" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="I38" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="J38" t="n">
-        <v>107.343278060927</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="K38" t="n">
-        <v>107.343278060927</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="L38" t="n">
-        <v>448.3853518447279</v>
+        <v>373.6425398976105</v>
       </c>
       <c r="M38" t="n">
-        <v>844.4669161747876</v>
+        <v>769.7241042276702</v>
       </c>
       <c r="N38" t="n">
-        <v>1232.325496760421</v>
+        <v>1157.582684813304</v>
       </c>
       <c r="O38" t="n">
-        <v>1293.424138544524</v>
+        <v>1293.424138544523</v>
       </c>
       <c r="P38" t="n">
-        <v>1529.763812739443</v>
+        <v>1529.763812739442</v>
       </c>
       <c r="Q38" t="n">
-        <v>1630.023305690484</v>
+        <v>1630.023305690483</v>
       </c>
       <c r="R38" t="n">
-        <v>1630.023305690484</v>
+        <v>1630.023305690483</v>
       </c>
       <c r="S38" t="n">
-        <v>1630.023305690484</v>
+        <v>1630.023305690483</v>
       </c>
       <c r="T38" t="n">
-        <v>1535.574051684937</v>
+        <v>1630.023305690483</v>
       </c>
       <c r="U38" t="n">
-        <v>1535.574051684937</v>
+        <v>1630.023305690483</v>
       </c>
       <c r="V38" t="n">
-        <v>1535.574051684937</v>
+        <v>1630.023305690483</v>
       </c>
       <c r="W38" t="n">
-        <v>1182.805396414823</v>
+        <v>1630.023305690483</v>
       </c>
       <c r="X38" t="n">
-        <v>809.3396381537432</v>
+        <v>1630.023305690483</v>
       </c>
       <c r="Y38" t="n">
-        <v>419.2003061779315</v>
+        <v>1239.883973714671</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>333.7607329459656</v>
+        <v>262.0229868687356</v>
       </c>
       <c r="C39" t="n">
-        <v>333.7607329459656</v>
+        <v>262.0229868687356</v>
       </c>
       <c r="D39" t="n">
-        <v>184.8263232847143</v>
+        <v>191.8379211192652</v>
       </c>
       <c r="E39" t="n">
-        <v>184.8263232847143</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="F39" t="n">
-        <v>184.8263232847143</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="G39" t="n">
-        <v>103.7282637528852</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="H39" t="n">
-        <v>103.7282637528852</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="I39" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="J39" t="n">
-        <v>83.42339318698718</v>
+        <v>83.42339318698717</v>
       </c>
       <c r="K39" t="n">
         <v>296.9087136265814</v>
@@ -7260,43 +7260,43 @@
         <v>645.3704689693275</v>
       </c>
       <c r="M39" t="n">
-        <v>800.6735016050019</v>
+        <v>952.6473995114486</v>
       </c>
       <c r="N39" t="n">
-        <v>1204.104269763397</v>
+        <v>964.5613611933737</v>
       </c>
       <c r="O39" t="n">
-        <v>1204.104269763397</v>
+        <v>1343.164209436261</v>
       </c>
       <c r="P39" t="n">
-        <v>1490.963366017618</v>
+        <v>1630.023305690483</v>
       </c>
       <c r="Q39" t="n">
-        <v>1630.023305690484</v>
+        <v>1630.023305690483</v>
       </c>
       <c r="R39" t="n">
-        <v>1630.023305690484</v>
+        <v>1563.426572009909</v>
       </c>
       <c r="S39" t="n">
-        <v>1466.94898106707</v>
+        <v>1563.426572009909</v>
       </c>
       <c r="T39" t="n">
-        <v>1466.94898106707</v>
+        <v>1563.426572009909</v>
       </c>
       <c r="U39" t="n">
-        <v>1238.761996876397</v>
+        <v>1335.239587819235</v>
       </c>
       <c r="V39" t="n">
-        <v>1003.609888644654</v>
+        <v>1100.087479587492</v>
       </c>
       <c r="W39" t="n">
-        <v>749.3725319164523</v>
+        <v>845.8501228592904</v>
       </c>
       <c r="X39" t="n">
-        <v>541.5210317109195</v>
+        <v>637.9986226537576</v>
       </c>
       <c r="Y39" t="n">
-        <v>333.7607329459656</v>
+        <v>430.2383238888037</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="C40" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="D40" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="E40" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="F40" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="G40" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="H40" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="I40" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="J40" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="K40" t="n">
-        <v>63.7119858756315</v>
+        <v>63.71198587563148</v>
       </c>
       <c r="L40" t="n">
         <v>159.0504544523678</v>
@@ -7354,28 +7354,28 @@
         <v>525.3229500527797</v>
       </c>
       <c r="R40" t="n">
-        <v>367.2292794239207</v>
+        <v>525.3229500527797</v>
       </c>
       <c r="S40" t="n">
-        <v>367.2292794239207</v>
+        <v>525.3229500527797</v>
       </c>
       <c r="T40" t="n">
-        <v>138.9758645006037</v>
+        <v>525.3229500527797</v>
       </c>
       <c r="U40" t="n">
-        <v>138.9758645006037</v>
+        <v>322.0176361507703</v>
       </c>
       <c r="V40" t="n">
-        <v>138.9758645006037</v>
+        <v>322.0176361507703</v>
       </c>
       <c r="W40" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="X40" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
       <c r="Y40" t="n">
-        <v>32.60046611380967</v>
+        <v>32.60046611380965</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>416.7696498943679</v>
+        <v>248.8497393631161</v>
       </c>
       <c r="C41" t="n">
-        <v>416.7696498943679</v>
+        <v>121.8855866268323</v>
       </c>
       <c r="D41" t="n">
-        <v>416.7696498943679</v>
+        <v>121.8855866268323</v>
       </c>
       <c r="E41" t="n">
-        <v>416.7696498943679</v>
+        <v>121.8855866268323</v>
       </c>
       <c r="F41" t="n">
-        <v>289.8054971580842</v>
+        <v>10.05556089671367</v>
       </c>
       <c r="G41" t="n">
-        <v>263.9838663692813</v>
+        <v>10.05556089671367</v>
       </c>
       <c r="H41" t="n">
-        <v>137.0197136329975</v>
+        <v>10.05556089671367</v>
       </c>
       <c r="I41" t="n">
         <v>10.05556089671367</v>
@@ -7415,46 +7415,46 @@
         <v>134.4931269935454</v>
       </c>
       <c r="L41" t="n">
-        <v>153.6434196909797</v>
+        <v>258.9306930903771</v>
       </c>
       <c r="M41" t="n">
-        <v>278.0809857878114</v>
+        <v>258.9306930903771</v>
       </c>
       <c r="N41" t="n">
-        <v>402.5185518846431</v>
+        <v>383.3682591872088</v>
       </c>
       <c r="O41" t="n">
-        <v>402.5185518846431</v>
+        <v>383.3682591872088</v>
       </c>
       <c r="P41" t="n">
-        <v>402.5185518846431</v>
+        <v>502.7780448356837</v>
       </c>
       <c r="Q41" t="n">
         <v>502.7780448356837</v>
       </c>
       <c r="R41" t="n">
-        <v>416.7696498943679</v>
+        <v>502.7780448356837</v>
       </c>
       <c r="S41" t="n">
-        <v>416.7696498943679</v>
+        <v>502.7780448356837</v>
       </c>
       <c r="T41" t="n">
-        <v>416.7696498943679</v>
+        <v>502.7780448356837</v>
       </c>
       <c r="U41" t="n">
-        <v>416.7696498943679</v>
+        <v>502.7780448356837</v>
       </c>
       <c r="V41" t="n">
-        <v>416.7696498943679</v>
+        <v>502.7780448356837</v>
       </c>
       <c r="W41" t="n">
-        <v>416.7696498943679</v>
+        <v>375.8138920993999</v>
       </c>
       <c r="X41" t="n">
-        <v>416.7696498943679</v>
+        <v>248.8497393631161</v>
       </c>
       <c r="Y41" t="n">
-        <v>416.7696498943679</v>
+        <v>248.8497393631161</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>248.8497393631162</v>
+        <v>137.0197136329975</v>
       </c>
       <c r="C42" t="n">
-        <v>248.8497393631162</v>
+        <v>10.05556089671367</v>
       </c>
       <c r="D42" t="n">
-        <v>248.8497393631162</v>
+        <v>10.05556089671367</v>
       </c>
       <c r="E42" t="n">
-        <v>208.1475112720729</v>
+        <v>10.05556089671367</v>
       </c>
       <c r="F42" t="n">
-        <v>208.1475112720729</v>
+        <v>10.05556089671367</v>
       </c>
       <c r="G42" t="n">
-        <v>81.18335853578915</v>
+        <v>10.05556089671367</v>
       </c>
       <c r="H42" t="n">
-        <v>81.18335853578915</v>
+        <v>10.05556089671367</v>
       </c>
       <c r="I42" t="n">
         <v>10.05556089671367</v>
@@ -7491,22 +7491,22 @@
         <v>60.87848796989118</v>
       </c>
       <c r="K42" t="n">
-        <v>60.87848796989118</v>
+        <v>185.3160540667229</v>
       </c>
       <c r="L42" t="n">
-        <v>185.3160540667229</v>
+        <v>309.7536201635546</v>
       </c>
       <c r="M42" t="n">
-        <v>185.3160540667229</v>
+        <v>366.4265170569269</v>
       </c>
       <c r="N42" t="n">
-        <v>197.230015748648</v>
+        <v>378.340478738852</v>
       </c>
       <c r="O42" t="n">
-        <v>253.9029126420203</v>
+        <v>502.7780448356837</v>
       </c>
       <c r="P42" t="n">
-        <v>378.340478738852</v>
+        <v>502.7780448356837</v>
       </c>
       <c r="Q42" t="n">
         <v>502.7780448356837</v>
@@ -7515,25 +7515,25 @@
         <v>502.7780448356837</v>
       </c>
       <c r="S42" t="n">
-        <v>375.8138920993999</v>
+        <v>502.7780448356837</v>
       </c>
       <c r="T42" t="n">
-        <v>375.8138920993999</v>
+        <v>502.7780448356837</v>
       </c>
       <c r="U42" t="n">
-        <v>375.8138920993999</v>
+        <v>502.7780448356837</v>
       </c>
       <c r="V42" t="n">
-        <v>375.8138920993999</v>
+        <v>502.7780448356837</v>
       </c>
       <c r="W42" t="n">
         <v>375.8138920993999</v>
       </c>
       <c r="X42" t="n">
-        <v>248.8497393631162</v>
+        <v>263.9838663692812</v>
       </c>
       <c r="Y42" t="n">
-        <v>248.8497393631162</v>
+        <v>137.0197136329975</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>121.8855866268324</v>
+        <v>248.8497393631161</v>
       </c>
       <c r="C43" t="n">
-        <v>121.8855866268324</v>
+        <v>121.8855866268323</v>
       </c>
       <c r="D43" t="n">
-        <v>121.8855866268324</v>
+        <v>121.8855866268323</v>
       </c>
       <c r="E43" t="n">
-        <v>121.8855866268324</v>
+        <v>121.8855866268323</v>
       </c>
       <c r="F43" t="n">
         <v>10.05556089671367</v>
@@ -7570,16 +7570,16 @@
         <v>10.05556089671367</v>
       </c>
       <c r="K43" t="n">
-        <v>41.16708065853562</v>
+        <v>41.16708065853551</v>
       </c>
       <c r="L43" t="n">
-        <v>136.5055492352719</v>
+        <v>136.5055492352718</v>
       </c>
       <c r="M43" t="n">
-        <v>247.4157200042746</v>
+        <v>247.4157200042745</v>
       </c>
       <c r="N43" t="n">
-        <v>361.1233112306642</v>
+        <v>361.1233112306641</v>
       </c>
       <c r="O43" t="n">
         <v>450.1343803206921</v>
@@ -7600,19 +7600,19 @@
         <v>502.7780448356837</v>
       </c>
       <c r="U43" t="n">
+        <v>502.7780448356837</v>
+      </c>
+      <c r="V43" t="n">
+        <v>502.7780448356837</v>
+      </c>
+      <c r="W43" t="n">
+        <v>502.7780448356837</v>
+      </c>
+      <c r="X43" t="n">
+        <v>502.7780448356837</v>
+      </c>
+      <c r="Y43" t="n">
         <v>375.8138920993999</v>
-      </c>
-      <c r="V43" t="n">
-        <v>375.8138920993999</v>
-      </c>
-      <c r="W43" t="n">
-        <v>375.8138920993999</v>
-      </c>
-      <c r="X43" t="n">
-        <v>248.8497393631162</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>248.8497393631162</v>
       </c>
     </row>
     <row r="44">
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>93.59882532650069</v>
+        <v>112.9425553239091</v>
       </c>
       <c r="K11" t="n">
         <v>214.7238588496026</v>
       </c>
       <c r="L11" t="n">
-        <v>193.7902164339595</v>
+        <v>198.8687825434109</v>
       </c>
       <c r="M11" t="n">
-        <v>49.43114528065101</v>
+        <v>175.125656489572</v>
       </c>
       <c r="N11" t="n">
-        <v>171.2650915950125</v>
+        <v>45.57058038609162</v>
       </c>
       <c r="O11" t="n">
         <v>56.50096768507478</v>
       </c>
       <c r="P11" t="n">
-        <v>208.7662757491718</v>
+        <v>83.07176454025091</v>
       </c>
       <c r="Q11" t="n">
-        <v>111.0427755578435</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8769,25 +8769,25 @@
         <v>74.75474536750227</v>
       </c>
       <c r="K12" t="n">
-        <v>174.5180104037276</v>
+        <v>48.82349919480666</v>
       </c>
       <c r="L12" t="n">
-        <v>18.85877425018033</v>
+        <v>144.5532854591012</v>
       </c>
       <c r="M12" t="n">
-        <v>123.0708530453156</v>
+        <v>128.1494191547669</v>
       </c>
       <c r="N12" t="n">
-        <v>113.6602064797037</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>11.43519983946916</v>
+        <v>137.1297110483901</v>
       </c>
       <c r="P12" t="n">
-        <v>28.70610575688532</v>
+        <v>137.2877461271377</v>
       </c>
       <c r="Q12" t="n">
-        <v>195.3072134166229</v>
+        <v>69.61270220770196</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>214.7238588496026</v>
+        <v>214.7238588496027</v>
       </c>
       <c r="L14" t="n">
         <v>118.2924265883865</v>
@@ -9009,7 +9009,7 @@
         <v>174.5180104037276</v>
       </c>
       <c r="L15" t="n">
-        <v>144.5532854591012</v>
+        <v>144.5532854591013</v>
       </c>
       <c r="M15" t="n">
         <v>2.454907945845974</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>11.43519983946916</v>
+        <v>137.1297110483901</v>
       </c>
       <c r="P15" t="n">
-        <v>154.4006169658063</v>
+        <v>28.70610575688532</v>
       </c>
       <c r="Q15" t="n">
-        <v>126.8580526050478</v>
+        <v>126.8580526050477</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>93.59882532650069</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>89.02934764068172</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>331.8478057023357</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>45.57058038609162</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>215.8755734711423</v>
       </c>
       <c r="Q17" t="n">
-        <v>111.0427755578435</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>74.75474536750227</v>
       </c>
       <c r="K18" t="n">
         <v>48.82349919480666</v>
@@ -9249,19 +9249,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>374.9683959006628</v>
+        <v>409.9607343684665</v>
       </c>
       <c r="N18" t="n">
-        <v>395.4715216934036</v>
+        <v>395.4715216934034</v>
       </c>
       <c r="O18" t="n">
-        <v>11.43519983946916</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>92.84418623592602</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>69.61270220770196</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>129.9529235124385</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9495,7 +9495,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>183.950455139797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>69.61270220770196</v>
@@ -9723,10 +9723,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>190.7281647217125</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>344.8300608434134</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>69.61270220770196</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,10 +9957,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>95.86344627517138</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>190.7281647217121</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>48.82349919480666</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>344.8300608434134</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>69.61270220770196</v>
+        <v>150.7421265253342</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,10 +10431,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>95.86344627517185</v>
       </c>
       <c r="M33" t="n">
-        <v>190.7281647217125</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>93.59882532650069</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>291.8132134998936</v>
+        <v>128.5840597142349</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>83.07176454025091</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>111.0427755578435</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>74.75474536750227</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,19 +10671,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>409.9607343684669</v>
+        <v>2.454907945845974</v>
       </c>
       <c r="N36" t="n">
-        <v>144.8374454078275</v>
+        <v>361.7170278942416</v>
       </c>
       <c r="O36" t="n">
-        <v>11.43519983946916</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>69.61270220770196</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>93.59882532650069</v>
       </c>
       <c r="K38" t="n">
         <v>89.02934764068172</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>118.2167674669965</v>
+        <v>193.7145573125687</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10908,19 +10908,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>159.3266580828908</v>
+        <v>312.8356458671805</v>
       </c>
       <c r="N39" t="n">
-        <v>395.4715216934036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>11.43519983946916</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>69.61270220770196</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,13 +11060,13 @@
         <v>93.59882532650069</v>
       </c>
       <c r="K41" t="n">
-        <v>214.7238588496027</v>
+        <v>214.7238588496026</v>
       </c>
       <c r="L41" t="n">
-        <v>92.51800133189835</v>
+        <v>198.8687825434109</v>
       </c>
       <c r="M41" t="n">
-        <v>175.125656489572</v>
+        <v>49.43114528065101</v>
       </c>
       <c r="N41" t="n">
         <v>171.2650915950125</v>
@@ -11075,10 +11075,10 @@
         <v>56.50096768507478</v>
       </c>
       <c r="P41" t="n">
-        <v>83.07176454025091</v>
+        <v>203.6877096397205</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>111.0427755578435</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>48.82349919480666</v>
+        <v>174.5180104037276</v>
       </c>
       <c r="L42" t="n">
-        <v>144.5532854591013</v>
+        <v>144.5532854591012</v>
       </c>
       <c r="M42" t="n">
-        <v>2.454907945845974</v>
+        <v>59.70025834319178</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>68.68055023681492</v>
+        <v>137.1297110483901</v>
       </c>
       <c r="P42" t="n">
-        <v>154.4006169658063</v>
+        <v>28.70610575688532</v>
       </c>
       <c r="Q42" t="n">
-        <v>195.3072134166229</v>
+        <v>69.61270220770196</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23258,10 +23258,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>239.5783805620866</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>228.988530411762</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23270,10 +23270,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.2724180205895</v>
+        <v>288.5779068116686</v>
       </c>
       <c r="H11" t="n">
-        <v>328.9230425922525</v>
+        <v>203.2285313833316</v>
       </c>
       <c r="I11" t="n">
         <v>45.05998604801758</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>185.5416641042886</v>
+        <v>159.9782496233737</v>
       </c>
       <c r="T11" t="n">
         <v>218.5856259767582</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>360.6745241751387</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,10 +23334,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>40.83867244094643</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>47.01398777939482</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23382,28 +23382,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>65.93076634376834</v>
       </c>
       <c r="S12" t="n">
-        <v>35.74907016825793</v>
+        <v>161.4435813771788</v>
       </c>
       <c r="T12" t="n">
-        <v>72.24821442597161</v>
+        <v>197.9427256348925</v>
       </c>
       <c r="U12" t="n">
-        <v>100.2106031398461</v>
+        <v>225.9051143487671</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>140.9832576881021</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>160.9017366482552</v>
+        <v>79.98818456838345</v>
       </c>
     </row>
     <row r="13">
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>104.2790431675988</v>
+        <v>167.528813503221</v>
       </c>
       <c r="H13" t="n">
-        <v>32.4235866946776</v>
+        <v>158.1180979035985</v>
       </c>
       <c r="I13" t="n">
         <v>141.5518872079267</v>
@@ -23467,22 +23467,22 @@
         <v>215.9623076325108</v>
       </c>
       <c r="T13" t="n">
-        <v>100.2763695651629</v>
+        <v>225.9708807740838</v>
       </c>
       <c r="U13" t="n">
         <v>286.2938203098416</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>126.4431321149071</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>162.459885053415</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>92.89014214317388</v>
       </c>
     </row>
     <row r="14">
@@ -23504,16 +23504,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>296.164320268894</v>
       </c>
       <c r="G14" t="n">
         <v>414.2724180205895</v>
       </c>
       <c r="H14" t="n">
-        <v>328.9230425922525</v>
+        <v>203.2285313833316</v>
       </c>
       <c r="I14" t="n">
-        <v>170.7544972569385</v>
+        <v>45.05998604801756</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>85.14831099190262</v>
       </c>
       <c r="S14" t="n">
         <v>185.5416641042886</v>
       </c>
       <c r="T14" t="n">
-        <v>218.5856259767582</v>
+        <v>92.89111476783727</v>
       </c>
       <c r="U14" t="n">
-        <v>225.699812867358</v>
+        <v>251.2632273482729</v>
       </c>
       <c r="V14" t="n">
-        <v>202.057747261214</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>244.0365894695481</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>260.5434274471327</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23580,19 +23580,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>31.95056924648003</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>19.37470118446296</v>
+        <v>26.22709165757416</v>
       </c>
       <c r="G15" t="n">
-        <v>11.09773642473169</v>
+        <v>11.09773642473168</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>70.41651966268472</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>65.93076634376834</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>161.4435813771788</v>
@@ -23640,7 +23640,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>201.8823114528835</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>22.92096180929143</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23674,7 +23674,7 @@
         <v>141.5518872079267</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>60.68405415136394</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,28 +23695,28 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>47.46195513719525</v>
       </c>
       <c r="R16" t="n">
-        <v>30.81822271364945</v>
+        <v>156.5127339225704</v>
       </c>
       <c r="S16" t="n">
-        <v>90.26779642358986</v>
+        <v>90.26779642358984</v>
       </c>
       <c r="T16" t="n">
-        <v>100.2763695651629</v>
+        <v>225.9708807740838</v>
       </c>
       <c r="U16" t="n">
         <v>286.2938203098416</v>
       </c>
       <c r="V16" t="n">
-        <v>249.5719271395698</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>175.8112728637735</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>100.0151441801162</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23729,13 +23729,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23747,10 +23747,10 @@
         <v>414.2724180205895</v>
       </c>
       <c r="H17" t="n">
-        <v>326.9119814784445</v>
+        <v>328.9230425922525</v>
       </c>
       <c r="I17" t="n">
-        <v>170.7544972569385</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>85.14831099190262</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23786,19 +23786,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2632273482729</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>324.9136043174369</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23811,16 +23811,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>19.06946516766286</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23871,13 +23871,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>44.82534143185001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23935,22 +23935,22 @@
         <v>47.46195513719525</v>
       </c>
       <c r="R19" t="n">
-        <v>156.5127339225704</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>215.9623076325108</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>24.69862001109453</v>
+        <v>225.9708807740838</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2938203098416</v>
+        <v>170.9736027653425</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,19 +23966,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>128.01458253896</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>179.5501632273906</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>414.2724180205895</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>170.7544972569385</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,22 +24014,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>85.14831099190262</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>185.5416641042886</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.5856259767582</v>
       </c>
       <c r="U20" t="n">
         <v>251.2632273482729</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24054,19 +24054,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.7922476336526</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>70.41651966268472</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>65.93076634376834</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24102,10 +24102,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>64.85777949106981</v>
       </c>
       <c r="V21" t="n">
-        <v>139.5683245578947</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>133.7086841039051</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24172,25 +24172,25 @@
         <v>47.46195513719525</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>156.5127339225704</v>
       </c>
       <c r="S22" t="n">
-        <v>215.9623076325108</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.9708807740838</v>
       </c>
       <c r="U22" t="n">
-        <v>207.1489384566597</v>
+        <v>286.2938203098416</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,19 +24212,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>223.2898136795197</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.2724180205895</v>
       </c>
       <c r="H23" t="n">
-        <v>178.6272285290862</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>170.7544972569385</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,7 +24260,7 @@
         <v>218.5856259767582</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2632273482729</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,25 +24282,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.7922476336526</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>84.56395511800292</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24333,7 +24333,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>93.906562407246</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24351,7 +24351,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.528813503221</v>
@@ -24412,7 +24412,7 @@
         <v>156.5127339225704</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>215.9623076325108</v>
       </c>
       <c r="T25" t="n">
         <v>225.9708807740838</v>
@@ -24424,10 +24424,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>14.69004686952161</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>169.858442648979</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,19 +24449,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.2724180205895</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>328.9230425922525</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>23.56153020689655</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,13 +24494,13 @@
         <v>185.5416641042886</v>
       </c>
       <c r="T26" t="n">
-        <v>156.4304682244189</v>
+        <v>218.5856259767582</v>
       </c>
       <c r="U26" t="n">
         <v>251.2632273482729</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24519,10 +24519,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>105.8943178706374</v>
+        <v>29.89810638537182</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24531,13 +24531,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>106.9113411483966</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24570,7 +24570,7 @@
         <v>65.93076634376834</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>161.4435813771788</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>88.66592143640021</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>167.528813503221</v>
       </c>
       <c r="H28" t="n">
-        <v>76.12569976003941</v>
+        <v>158.1180979035985</v>
       </c>
       <c r="I28" t="n">
-        <v>141.5518872079267</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>60.68405415136394</v>
@@ -24652,10 +24652,10 @@
         <v>215.9623076325108</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.9708807740838</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2938203098416</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,19 +24686,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>90.41992363205367</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.2724180205895</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>328.9230425922525</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>170.7544972569385</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,25 +24728,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>185.5416641042886</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2632273482729</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>254.693795794584</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,25 +24756,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>70.58758698806969</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>40.09716003071783</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>65.93076634376834</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24822,7 +24822,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>52.32037369474432</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24859,7 +24859,7 @@
         <v>141.5518872079267</v>
       </c>
       <c r="J31" t="n">
-        <v>60.68405415136394</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24880,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.46195513719525</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>156.5127339225704</v>
@@ -24895,10 +24895,10 @@
         <v>286.2938203098416</v>
       </c>
       <c r="V31" t="n">
-        <v>50.86538256083881</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24926,13 +24926,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>414.2724180205895</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>328.9230425922525</v>
       </c>
       <c r="I32" t="n">
         <v>170.7544972569385</v>
@@ -24965,25 +24965,25 @@
         <v>85.14831099190262</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>185.5416641042886</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.5856259767582</v>
       </c>
       <c r="U32" t="n">
         <v>251.2632273482729</v>
       </c>
       <c r="V32" t="n">
-        <v>135.0481782976035</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>171.3453141814683</v>
       </c>
     </row>
     <row r="33">
@@ -25002,19 +25002,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.7922476336526</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>70.41651966268472</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25050,7 +25050,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>94.35152403444545</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25059,10 +25059,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>76.01341138538086</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>158.1180979035985</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>141.5518872079267</v>
@@ -25138,10 +25138,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>63.56130769627646</v>
       </c>
       <c r="Y34" t="n">
-        <v>44.75217040230476</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>200.9279346663507</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25160,19 +25160,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>119.2809109921367</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.2724180205895</v>
+        <v>6.76659159796867</v>
       </c>
       <c r="H35" t="n">
         <v>328.9230425922525</v>
       </c>
       <c r="I35" t="n">
-        <v>170.7544972569385</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,25 +25202,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>185.5416641042886</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.5856259767582</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,13 +25230,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25245,13 +25245,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.7922476336526</v>
       </c>
       <c r="H36" t="n">
-        <v>32.73674140800388</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>70.41651966268472</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,19 +25278,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>65.93076634376834</v>
       </c>
       <c r="S36" t="n">
         <v>161.4435813771788</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>60.94610079701343</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9051143487671</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25330,10 +25330,10 @@
         <v>158.1180979035985</v>
       </c>
       <c r="I37" t="n">
-        <v>141.5518872079267</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>60.68405415136394</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.46195513719525</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>156.5127339225704</v>
@@ -25366,13 +25366,13 @@
         <v>225.9708807740838</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2938203098416</v>
       </c>
       <c r="V37" t="n">
-        <v>50.6362045340893</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>48.42563573349665</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,25 +25388,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>277.2018275020562</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>414.2724180205895</v>
       </c>
       <c r="H38" t="n">
-        <v>328.9230425922525</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>170.7544972569385</v>
@@ -25442,7 +25442,7 @@
         <v>185.5416641042886</v>
       </c>
       <c r="T38" t="n">
-        <v>125.0808645112672</v>
+        <v>218.5856259767582</v>
       </c>
       <c r="U38" t="n">
         <v>251.2632273482729</v>
@@ -25451,10 +25451,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25467,28 +25467,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>77.96185047266297</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>56.50516869714176</v>
+        <v>136.7922476336526</v>
       </c>
       <c r="H39" t="n">
         <v>106.9113411483966</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>70.41651966268472</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,10 +25515,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>65.93076634376834</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>161.4435813771788</v>
       </c>
       <c r="T39" t="n">
         <v>197.9427256348925</v>
@@ -25594,22 +25594,22 @@
         <v>47.46195513719525</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>156.5127339225704</v>
       </c>
       <c r="S40" t="n">
         <v>215.9623076325108</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.9708807740838</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2938203098416</v>
+        <v>85.02155954685227</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>181.2113539336649</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25628,7 +25628,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>239.5783805620866</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25637,16 +25637,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>281.1815345327905</v>
+        <v>296.164320268894</v>
       </c>
       <c r="G41" t="n">
-        <v>388.7090035396746</v>
+        <v>414.2724180205895</v>
       </c>
       <c r="H41" t="n">
-        <v>203.2285313833316</v>
+        <v>328.9230425922525</v>
       </c>
       <c r="I41" t="n">
-        <v>45.05998604801756</v>
+        <v>170.7544972569385</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>85.14831099190262</v>
       </c>
       <c r="S41" t="n">
         <v>185.5416641042886</v>
@@ -25688,10 +25688,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>223.5464575084921</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>244.0365894695481</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25707,25 +25707,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>47.01398777939482</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>117.3498746452682</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>11.09773642473168</v>
+        <v>136.7922476336526</v>
       </c>
       <c r="H42" t="n">
         <v>106.9113411483966</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>70.41651966268472</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,7 +25755,7 @@
         <v>65.93076634376834</v>
       </c>
       <c r="S42" t="n">
-        <v>35.74907016825792</v>
+        <v>161.4435813771788</v>
       </c>
       <c r="T42" t="n">
         <v>197.9427256348925</v>
@@ -25767,13 +25767,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>126.0004719519987</v>
       </c>
       <c r="X42" t="n">
-        <v>80.07847399455655</v>
+        <v>95.06125973066</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>79.98818456838345</v>
       </c>
     </row>
     <row r="43">
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.13746897301637</v>
+        <v>54.13746897301638</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>41.55230988970692</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,7 +25795,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>34.70932255011374</v>
+        <v>34.70932255011378</v>
       </c>
       <c r="G43" t="n">
         <v>167.528813503221</v>
@@ -25840,7 +25840,7 @@
         <v>225.9708807740838</v>
       </c>
       <c r="U43" t="n">
-        <v>160.5993091009207</v>
+        <v>286.2938203098416</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,10 +25849,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>100.0151441801162</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>92.89014214317388</v>
       </c>
     </row>
     <row r="44">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355043.9720687739</v>
+        <v>355043.9720687737</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>532713.4881954584</v>
+        <v>532713.4881954581</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>611958.2941371022</v>
+        <v>611958.2941371023</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>611958.2941371023</v>
+        <v>611958.2941371024</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>532713.4881954583</v>
+        <v>532713.488195458</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377786</v>
+        <v>614457.2540377789</v>
       </c>
       <c r="C2" t="n">
-        <v>614457.2540377788</v>
+        <v>614457.2540377789</v>
       </c>
       <c r="D2" t="n">
         <v>614457.2540377789</v>
       </c>
       <c r="E2" t="n">
-        <v>229509.0717613217</v>
+        <v>229509.0717613216</v>
       </c>
       <c r="F2" t="n">
         <v>229509.0717613217</v>
       </c>
       <c r="G2" t="n">
-        <v>329578.353476763</v>
+        <v>329578.3534767629</v>
       </c>
       <c r="H2" t="n">
-        <v>374211.6196843744</v>
+        <v>374211.6196843746</v>
       </c>
       <c r="I2" t="n">
-        <v>374211.6196843745</v>
+        <v>374211.6196843747</v>
       </c>
       <c r="J2" t="n">
         <v>374211.6196843745</v>
       </c>
       <c r="K2" t="n">
+        <v>374211.6196843747</v>
+      </c>
+      <c r="L2" t="n">
         <v>374211.6196843745</v>
       </c>
-      <c r="L2" t="n">
-        <v>374211.6196843744</v>
-      </c>
       <c r="M2" t="n">
-        <v>329578.3534767631</v>
+        <v>329578.3534767629</v>
       </c>
       <c r="N2" t="n">
         <v>329578.3534767629</v>
       </c>
       <c r="O2" t="n">
-        <v>229509.0717613217</v>
+        <v>229509.0717613216</v>
       </c>
       <c r="P2" t="n">
         <v>176095.4908899177</v>
@@ -26378,10 +26378,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>77240.25433034697</v>
+        <v>77240.2543303469</v>
       </c>
       <c r="H3" t="n">
-        <v>33913.51037476773</v>
+        <v>33913.51037476781</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415295.1629349835</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="C4" t="n">
-        <v>415295.1629349835</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="D4" t="n">
-        <v>415295.1629349835</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>49507.67543476957</v>
+        <v>49140.87257285234</v>
       </c>
       <c r="F4" t="n">
-        <v>49507.67543476957</v>
+        <v>49140.87257285234</v>
       </c>
       <c r="G4" t="n">
-        <v>94286.66856032968</v>
+        <v>93588.88193256612</v>
       </c>
       <c r="H4" t="n">
-        <v>114259.1584835139</v>
+        <v>113413.7452686681</v>
       </c>
       <c r="I4" t="n">
-        <v>114259.1584835138</v>
+        <v>113413.7452686681</v>
       </c>
       <c r="J4" t="n">
-        <v>114259.1584835138</v>
+        <v>113413.7452686681</v>
       </c>
       <c r="K4" t="n">
-        <v>114259.1584835138</v>
+        <v>113413.7452686681</v>
       </c>
       <c r="L4" t="n">
-        <v>114259.1584835138</v>
+        <v>113413.7452686681</v>
       </c>
       <c r="M4" t="n">
-        <v>94286.66856032968</v>
+        <v>93588.88193256613</v>
       </c>
       <c r="N4" t="n">
-        <v>94286.66856032968</v>
+        <v>93588.8819325661</v>
       </c>
       <c r="O4" t="n">
-        <v>49507.67543476957</v>
+        <v>49140.87257285234</v>
       </c>
       <c r="P4" t="n">
-        <v>25773.244398632</v>
+        <v>25581.86884062019</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26482,7 @@
         <v>13229.39132054929</v>
       </c>
       <c r="G5" t="n">
-        <v>30363.51928554224</v>
+        <v>30363.51928554223</v>
       </c>
       <c r="H5" t="n">
         <v>38005.74556704463</v>
@@ -26503,7 +26503,7 @@
         <v>30363.51928554224</v>
       </c>
       <c r="N5" t="n">
-        <v>30363.51928554224</v>
+        <v>30363.51928554223</v>
       </c>
       <c r="O5" t="n">
         <v>13229.39132054929</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165534.4911027951</v>
+        <v>166057.2554248201</v>
       </c>
       <c r="C6" t="n">
-        <v>165534.4911027953</v>
+        <v>166057.2554248201</v>
       </c>
       <c r="D6" t="n">
-        <v>165534.4911027954</v>
+        <v>166057.2554248201</v>
       </c>
       <c r="E6" t="n">
-        <v>-76663.35176473406</v>
+        <v>-76296.54890281684</v>
       </c>
       <c r="F6" t="n">
-        <v>166772.0050060028</v>
+        <v>167138.80786792</v>
       </c>
       <c r="G6" t="n">
-        <v>127687.9113005441</v>
+        <v>128385.6979283077</v>
       </c>
       <c r="H6" t="n">
-        <v>188033.2052590482</v>
+        <v>188878.618473894</v>
       </c>
       <c r="I6" t="n">
-        <v>221946.7156338161</v>
+        <v>222792.1288486619</v>
       </c>
       <c r="J6" t="n">
-        <v>221946.715633816</v>
+        <v>222792.1288486617</v>
       </c>
       <c r="K6" t="n">
-        <v>221946.7156338161</v>
+        <v>222792.1288486619</v>
       </c>
       <c r="L6" t="n">
-        <v>221946.7156338159</v>
+        <v>222792.1288486618</v>
       </c>
       <c r="M6" t="n">
-        <v>204928.1656308911</v>
+        <v>205625.9522586545</v>
       </c>
       <c r="N6" t="n">
-        <v>204928.165630891</v>
+        <v>205625.9522586545</v>
       </c>
       <c r="O6" t="n">
-        <v>166772.0050060028</v>
+        <v>167138.80786792</v>
       </c>
       <c r="P6" t="n">
-        <v>144735.0814522388</v>
+        <v>144926.4570102506</v>
       </c>
     </row>
   </sheetData>
@@ -26802,7 +26802,7 @@
         <v>125.6945112089209</v>
       </c>
       <c r="G4" t="n">
-        <v>407.5058264226209</v>
+        <v>407.5058264226206</v>
       </c>
       <c r="H4" t="n">
         <v>533.2003376315417</v>
@@ -26820,10 +26820,10 @@
         <v>533.2003376315417</v>
       </c>
       <c r="M4" t="n">
-        <v>407.5058264226209</v>
+        <v>407.5058264226208</v>
       </c>
       <c r="N4" t="n">
-        <v>407.5058264226209</v>
+        <v>407.5058264226207</v>
       </c>
       <c r="O4" t="n">
         <v>125.6945112089209</v>
@@ -27024,10 +27024,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>281.8113152137</v>
+        <v>281.8113152136997</v>
       </c>
       <c r="H4" t="n">
-        <v>125.6945112089209</v>
+        <v>125.6945112089211</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27270,10 +27270,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>281.8113152137</v>
+        <v>281.8113152136997</v>
       </c>
       <c r="P4" t="n">
-        <v>125.6945112089209</v>
+        <v>125.6945112089211</v>
       </c>
     </row>
   </sheetData>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>19.34372999740838</v>
       </c>
       <c r="K11" t="n">
         <v>125.6945112089209</v>
       </c>
       <c r="L11" t="n">
-        <v>120.6159450994696</v>
+        <v>125.6945112089209</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>125.6945112089209</v>
       </c>
       <c r="N11" t="n">
-        <v>125.6945112089209</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>125.6945112089209</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>101.2722151020612</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>125.6945112089209</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
       <c r="M12" t="n">
-        <v>120.6159450994696</v>
+        <v>125.6945112089209</v>
       </c>
       <c r="N12" t="n">
+        <v>12.03430472921724</v>
+      </c>
+      <c r="O12" t="n">
         <v>125.6945112089209</v>
       </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>108.5816403702524</v>
       </c>
       <c r="Q12" t="n">
-        <v>125.6945112089209</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>125.6945112089209</v>
       </c>
       <c r="L14" t="n">
-        <v>45.11815525389652</v>
+        <v>45.1181552538965</v>
       </c>
       <c r="M14" t="n">
         <v>125.6945112089209</v>
@@ -35738,13 +35738,13 @@
         <v>12.03430472921724</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>125.6945112089209</v>
       </c>
       <c r="P15" t="n">
-        <v>125.6945112089209</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.24535039734581</v>
+        <v>57.24535039734575</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>75.49778984557308</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>235.116064930483</v>
       </c>
       <c r="L17" t="n">
-        <v>258.6735343678458</v>
+        <v>344.4869432159605</v>
       </c>
       <c r="M17" t="n">
         <v>400.0823882121815</v>
       </c>
       <c r="N17" t="n">
-        <v>391.7763440258925</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>324.2992135776706</v>
       </c>
       <c r="P17" t="n">
-        <v>238.7269436312317</v>
+        <v>132.8038089308914</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>101.2722151020612</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.33628997290658</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>351.9815710532789</v>
       </c>
       <c r="M18" t="n">
-        <v>372.5134879548168</v>
+        <v>407.5058264226206</v>
       </c>
       <c r="N18" t="n">
-        <v>407.5058264226209</v>
+        <v>407.5058264226206</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>382.4271194372603</v>
       </c>
       <c r="P18" t="n">
-        <v>289.7566628830518</v>
+        <v>64.1380804790407</v>
       </c>
       <c r="Q18" t="n">
-        <v>140.4645855281472</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>51.33628997290658</v>
       </c>
       <c r="K21" t="n">
-        <v>215.6417378177719</v>
+        <v>81.12942431763187</v>
       </c>
       <c r="L21" t="n">
         <v>351.9815710532789</v>
@@ -36215,7 +36215,7 @@
         <v>382.4271194372603</v>
       </c>
       <c r="P21" t="n">
-        <v>155.2443493829117</v>
+        <v>289.7566628830518</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>351.9815710532789</v>
       </c>
       <c r="M24" t="n">
-        <v>188.2732567758665</v>
+        <v>463.2501558041539</v>
       </c>
       <c r="N24" t="n">
-        <v>491.3766790727708</v>
+        <v>356.8643655726306</v>
       </c>
       <c r="O24" t="n">
         <v>382.4271194372603</v>
@@ -36455,7 +36455,7 @@
         <v>289.7566628830518</v>
       </c>
       <c r="Q24" t="n">
-        <v>140.4645855281472</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,10 +36677,10 @@
         <v>215.6417378177719</v>
       </c>
       <c r="L27" t="n">
-        <v>77.00467202499105</v>
+        <v>351.9815710532789</v>
       </c>
       <c r="M27" t="n">
-        <v>463.2501558041539</v>
+        <v>188.2732567758661</v>
       </c>
       <c r="N27" t="n">
         <v>491.3766790727708</v>
@@ -36911,7 +36911,7 @@
         <v>51.33628997290658</v>
       </c>
       <c r="K30" t="n">
-        <v>215.6417378177719</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>351.9815710532789</v>
@@ -36920,7 +36920,7 @@
         <v>463.2501558041539</v>
       </c>
       <c r="N30" t="n">
-        <v>356.8643655726306</v>
+        <v>491.3766790727708</v>
       </c>
       <c r="O30" t="n">
         <v>382.4271194372603</v>
@@ -36929,7 +36929,7 @@
         <v>289.7566628830518</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>81.12942431763221</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,10 +37151,10 @@
         <v>215.6417378177719</v>
       </c>
       <c r="L33" t="n">
-        <v>351.9815710532789</v>
+        <v>77.00467202499152</v>
       </c>
       <c r="M33" t="n">
-        <v>188.2732567758665</v>
+        <v>463.2501558041539</v>
       </c>
       <c r="N33" t="n">
         <v>491.3766790727708</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>75.49778984557308</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>235.116064930483</v>
@@ -37312,7 +37312,7 @@
         <v>344.4869432159605</v>
       </c>
       <c r="M35" t="n">
-        <v>242.3820682192426</v>
+        <v>79.15291443358385</v>
       </c>
       <c r="N35" t="n">
         <v>391.7763440258925</v>
@@ -37321,7 +37321,7 @@
         <v>324.2992135776706</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>238.7269436312317</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>51.33628997290658</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>215.6417378177719</v>
@@ -37391,19 +37391,19 @@
         <v>351.9815710532789</v>
       </c>
       <c r="M36" t="n">
-        <v>407.5058264226209</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>156.8717501370448</v>
+        <v>373.7513326234588</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>382.4271194372603</v>
       </c>
       <c r="P36" t="n">
         <v>289.7566628830518</v>
       </c>
       <c r="Q36" t="n">
-        <v>140.4645855281472</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>75.49778984557308</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>391.7763440258925</v>
       </c>
       <c r="O38" t="n">
-        <v>61.7157997819217</v>
+        <v>137.2135896274939</v>
       </c>
       <c r="P38" t="n">
         <v>238.7269436312317</v>
@@ -37628,19 +37628,19 @@
         <v>351.9815710532789</v>
       </c>
       <c r="M39" t="n">
-        <v>156.8717501370449</v>
+        <v>310.3807379213345</v>
       </c>
       <c r="N39" t="n">
-        <v>407.5058264226209</v>
+        <v>12.03430472921724</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>382.4271194372603</v>
       </c>
       <c r="P39" t="n">
         <v>289.7566628830518</v>
       </c>
       <c r="Q39" t="n">
-        <v>140.4645855281472</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,10 +37783,10 @@
         <v>125.6945112089209</v>
       </c>
       <c r="L41" t="n">
-        <v>19.3437299974084</v>
+        <v>125.6945112089209</v>
       </c>
       <c r="M41" t="n">
-        <v>125.6945112089209</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>125.6945112089209</v>
@@ -37795,10 +37795,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>120.6159450994696</v>
       </c>
       <c r="Q41" t="n">
-        <v>101.2722151020612</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>51.33628997290658</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>125.6945112089209</v>
       </c>
       <c r="L42" t="n">
         <v>125.6945112089209</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>57.24535039734581</v>
       </c>
       <c r="N42" t="n">
         <v>12.03430472921724</v>
       </c>
       <c r="O42" t="n">
-        <v>57.24535039734575</v>
+        <v>125.6945112089209</v>
       </c>
       <c r="P42" t="n">
-        <v>125.6945112089209</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>125.6945112089209</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
